--- a/analysis/mails_01/P04_6/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_6/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -66,6 +66,12 @@
     <t xml:space="preserve">2021-07-01</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9264</t>
+  </si>
+  <si>
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
@@ -90,12 +96,30 @@
     <t xml:space="preserve">MFD05765</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6901</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05767</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2947</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05768</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4479</t>
+  </si>
+  <si>
     <t xml:space="preserve">6200</t>
   </si>
   <si>
@@ -105,81 +129,237 @@
     <t xml:space="preserve">MFD05769</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5816</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05770</t>
   </si>
   <si>
+    <t xml:space="preserve">56.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2262</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05771</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1056</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05772</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9828</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05773</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8302</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05774</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8226</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05775</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.625</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05776</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2465</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05778</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1636</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05779</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2612</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05781</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4624</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05783</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5874</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05784</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.113</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05785</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2148</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05786</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3453</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05788</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5136</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05789</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3332</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05794</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9509</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05799</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1505</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05805</t>
   </si>
   <si>
+    <t xml:space="preserve">55.683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5777</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05806</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6005</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05807</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8749</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05808</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4486</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05809</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1551</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05810</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6699</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05813</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3083</t>
+  </si>
+  <si>
     <t xml:space="preserve">6100</t>
   </si>
   <si>
@@ -189,288 +369,852 @@
     <t xml:space="preserve">MFD05814</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3416</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05815</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.242</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05817</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8402</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05823</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8566</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05825</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9638</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05831</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2694</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05833</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2145</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05834</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8561</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05835</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3535</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05836</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3721</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05837</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2492</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05838</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9753</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05839</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1553</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05843</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05847</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7773</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05848</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4174</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05858</t>
   </si>
   <si>
+    <t xml:space="preserve">55.475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5451</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05860</t>
   </si>
   <si>
+    <t xml:space="preserve">54.6894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5638</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05868</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8879</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05873</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0064</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05886</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05892</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6988</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05910</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8535</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05911</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3032</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05912</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3115</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05913</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9239</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05914</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3234</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05915</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05916</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7358</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05917</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8185</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05918</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3024</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05919</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5841</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05921</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3536</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05922</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5368</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05923</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1513</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05924</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2302</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05925</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05926</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0248</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05927</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0992</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05928</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.472</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05929</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7728</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05930</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8509</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05931</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5527</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05932</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8177</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05934</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3367</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05936</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3274</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05937</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9039</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05938</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5047</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05939</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7236</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05941</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4276</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05942</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6177</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05943</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4584</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05944</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3783</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05945</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3967</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05947</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2268</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05948</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6527</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05953</t>
   </si>
   <si>
+    <t xml:space="preserve">56.769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6176</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05958</t>
   </si>
   <si>
+    <t xml:space="preserve">56.772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.724</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05960</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7725</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05965</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4868</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05969</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9414</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05972</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05975</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1556</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05979</t>
   </si>
   <si>
+    <t xml:space="preserve">56.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.777</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05980</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8735</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05983</t>
   </si>
   <si>
+    <t xml:space="preserve">57.4633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.207</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05984</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7759</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05986</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1314</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05987</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05988</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2066</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05989</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3331</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05993</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1582</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05995</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5888</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05996</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5014</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05997</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1217</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06000</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5141</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06001</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2918</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06002</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1441</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06007</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4045</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06008</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9881</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06010</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.362</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06015</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2786</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06017</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6981</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06023</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3426</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06026</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4176</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06031</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2317</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06032</t>
   </si>
   <si>
+    <t xml:space="preserve">55.857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5637</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06034</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5017</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06035</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0283</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06037</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9455</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06042</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0058</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06044</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2071</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06047</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8651</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06049</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2623</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06053</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.996</t>
+  </si>
+  <si>
     <t xml:space="preserve">6710</t>
   </si>
   <si>
@@ -483,10 +1227,28 @@
     <t xml:space="preserve">MFD06055</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5493</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06931</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7752</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3166</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -944,39 +1706,39 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>55.1981</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11.9264</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -984,39 +1746,39 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
-        <v>55.5524</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.6901</v>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1024,39 +1786,39 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
-        <v>55.2758</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.2947</v>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1064,39 +1826,39 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
-        <v>54.8266</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.4479</v>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1104,39 +1866,39 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
-        <v>55.6755</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.5816</v>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1144,39 +1906,39 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>56.397</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.2262</v>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1184,33 +1946,33 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
-        <v>55.4357</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.1056</v>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1218,39 +1980,39 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
-        <v>55.1113</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.9828</v>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1258,39 +2020,39 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="n">
-        <v>55.4137</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.8302</v>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1298,39 +2060,39 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="n">
-        <v>55.3274</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.8226</v>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1338,39 +2100,39 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="n">
-        <v>56.1567</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.625</v>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1378,39 +2140,39 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="n">
-        <v>56.1969</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.2465</v>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1418,39 +2180,39 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="n">
-        <v>55.7991</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.1636</v>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1458,39 +2220,39 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="n">
-        <v>54.9005</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.2612</v>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1498,39 +2260,39 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="n">
-        <v>55.6581</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11.4624</v>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1538,39 +2300,39 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="n">
-        <v>55.8953</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11.5874</v>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1578,39 +2340,39 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="n">
-        <v>56.0315</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12.113</v>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1618,39 +2380,39 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="n">
-        <v>56.0338</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.2148</v>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1658,39 +2420,39 @@
       <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="n">
-        <v>55.1548</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10.3453</v>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1698,39 +2460,39 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="n">
-        <v>55.4623</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8.5136</v>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1738,39 +2500,39 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="n">
-        <v>54.9362</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.3332</v>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1778,39 +2540,39 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="n">
-        <v>54.9773</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.9509</v>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1818,39 +2580,39 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="n">
-        <v>55.9617</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.1505</v>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1858,39 +2620,39 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="n">
-        <v>55.683</v>
-      </c>
-      <c r="E25" t="n">
-        <v>11.5777</v>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1898,39 +2660,39 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="n">
-        <v>55.8948</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11.6005</v>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1938,39 +2700,39 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="n">
-        <v>55.5444</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8.8749</v>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1978,39 +2740,39 @@
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="n">
-        <v>55.4028</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.4486</v>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2018,39 +2780,39 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="n">
-        <v>55.9492</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10.1551</v>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -2058,39 +2820,39 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="n">
-        <v>55.5959</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.6699</v>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -2098,39 +2860,39 @@
       <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="n">
-        <v>54.8831</v>
-      </c>
-      <c r="E31" t="n">
-        <v>11.3083</v>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2138,39 +2900,39 @@
       <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="n">
-        <v>56.4174</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8.3416</v>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2178,39 +2940,39 @@
       <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" t="n">
-        <v>55.4421</v>
-      </c>
-      <c r="E33" t="n">
-        <v>10.242</v>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2218,39 +2980,39 @@
       <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" t="n">
-        <v>54.9866</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10.8402</v>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -2258,39 +3020,39 @@
       <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="n">
-        <v>54.9904</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.8566</v>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -2298,39 +3060,39 @@
       <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" t="n">
-        <v>55.5135</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9.9638</v>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2338,39 +3100,39 @@
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" t="n">
-        <v>55.4245</v>
-      </c>
-      <c r="E37" t="n">
-        <v>11.2694</v>
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -2378,39 +3140,39 @@
       <c r="C38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="n">
-        <v>55.4776</v>
-      </c>
-      <c r="E38" t="n">
-        <v>9.2145</v>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -2418,39 +3180,39 @@
       <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" t="n">
-        <v>55.3131</v>
-      </c>
-      <c r="E39" t="n">
-        <v>11.8561</v>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -2458,39 +3220,39 @@
       <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" t="n">
-        <v>56.0549</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.3535</v>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -2498,39 +3260,39 @@
       <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="D41" t="n">
-        <v>55.0925</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9.3721</v>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -2538,39 +3300,39 @@
       <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" t="n">
-        <v>55.4454</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10.2492</v>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -2578,39 +3340,39 @@
       <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" t="n">
-        <v>55.9804</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9.9753</v>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" t="s">
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -2618,39 +3380,39 @@
       <c r="C44" t="s">
         <v>16</v>
       </c>
-      <c r="D44" t="n">
-        <v>55.9542</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10.1553</v>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -2658,39 +3420,39 @@
       <c r="C45" t="s">
         <v>16</v>
       </c>
-      <c r="D45" t="n">
-        <v>55.6249</v>
-      </c>
-      <c r="E45" t="n">
-        <v>11.2637</v>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -2698,39 +3460,39 @@
       <c r="C46" t="s">
         <v>16</v>
       </c>
-      <c r="D46" t="n">
-        <v>54.9776</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10.7773</v>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -2738,39 +3500,39 @@
       <c r="C47" t="s">
         <v>16</v>
       </c>
-      <c r="D47" t="n">
-        <v>54.9659</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12.4174</v>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -2778,39 +3540,39 @@
       <c r="C48" t="s">
         <v>16</v>
       </c>
-      <c r="D48" t="n">
-        <v>55.475</v>
-      </c>
-      <c r="E48" t="n">
-        <v>8.5451</v>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -2818,39 +3580,39 @@
       <c r="C49" t="s">
         <v>16</v>
       </c>
-      <c r="D49" t="n">
-        <v>54.6894</v>
-      </c>
-      <c r="E49" t="n">
-        <v>11.5638</v>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -2858,39 +3620,39 @@
       <c r="C50" t="s">
         <v>16</v>
       </c>
-      <c r="D50" t="n">
-        <v>55.0038</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10.8879</v>
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" t="s">
+        <v>173</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -2898,39 +3660,39 @@
       <c r="C51" t="s">
         <v>16</v>
       </c>
-      <c r="D51" t="n">
-        <v>55.1375</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10.0064</v>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" t="s">
+        <v>176</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2938,33 +3700,33 @@
       <c r="C52" t="s">
         <v>16</v>
       </c>
-      <c r="D52" t="n">
-        <v>55.0513</v>
-      </c>
-      <c r="E52" t="n">
-        <v>11.9</v>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s">
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2972,33 +3734,33 @@
       <c r="C53" t="s">
         <v>16</v>
       </c>
-      <c r="D53" t="n">
-        <v>56.0604</v>
-      </c>
-      <c r="E53" t="n">
-        <v>8.6988</v>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>182</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -3006,39 +3768,39 @@
       <c r="C54" t="s">
         <v>16</v>
       </c>
-      <c r="D54" t="n">
-        <v>57.2439</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.8535</v>
+      <c r="D54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" t="s">
+        <v>185</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -3046,39 +3808,39 @@
       <c r="C55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" t="n">
-        <v>56.1801</v>
-      </c>
-      <c r="E55" t="n">
-        <v>8.3032</v>
+      <c r="D55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" t="s">
+        <v>188</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -3086,39 +3848,39 @@
       <c r="C56" t="s">
         <v>16</v>
       </c>
-      <c r="D56" t="n">
-        <v>56.4172</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10.3115</v>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" t="s">
+        <v>191</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -3126,39 +3888,39 @@
       <c r="C57" t="s">
         <v>16</v>
       </c>
-      <c r="D57" t="n">
-        <v>56.7789</v>
-      </c>
-      <c r="E57" t="n">
-        <v>9.9239</v>
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" t="s">
+        <v>194</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -3166,39 +3928,39 @@
       <c r="C58" t="s">
         <v>16</v>
       </c>
-      <c r="D58" t="n">
-        <v>56.8097</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.3234</v>
+      <c r="D58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" t="s">
+        <v>197</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -3206,39 +3968,39 @@
       <c r="C59" t="s">
         <v>16</v>
       </c>
-      <c r="D59" t="n">
-        <v>56.8963</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10.0629</v>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -3246,39 +4008,39 @@
       <c r="C60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="n">
-        <v>56.3279</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10.7358</v>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" t="s">
+        <v>203</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -3286,39 +4048,39 @@
       <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" t="n">
-        <v>56.4807</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9.8185</v>
+      <c r="D61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" t="s">
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -3326,39 +4088,39 @@
       <c r="C62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" t="n">
-        <v>57.3092</v>
-      </c>
-      <c r="E62" t="n">
-        <v>10.3024</v>
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" t="s">
+        <v>209</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M62" s="3"/>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -3366,39 +4128,39 @@
       <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" t="n">
-        <v>56.7245</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.5841</v>
+      <c r="D63" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" t="s">
+        <v>212</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -3406,39 +4168,39 @@
       <c r="C64" t="s">
         <v>16</v>
       </c>
-      <c r="D64" t="n">
-        <v>56.3352</v>
-      </c>
-      <c r="E64" t="n">
-        <v>10.3536</v>
+      <c r="D64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" t="s">
+        <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -3446,39 +4208,39 @@
       <c r="C65" t="s">
         <v>16</v>
       </c>
-      <c r="D65" t="n">
-        <v>56.2645</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9.5368</v>
+      <c r="D65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" t="s">
+        <v>218</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L65" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -3486,39 +4248,39 @@
       <c r="C66" t="s">
         <v>16</v>
       </c>
-      <c r="D66" t="n">
-        <v>57.1021</v>
-      </c>
-      <c r="E66" t="n">
-        <v>10.1513</v>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" t="s">
+        <v>221</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -3526,39 +4288,39 @@
       <c r="C67" t="s">
         <v>16</v>
       </c>
-      <c r="D67" t="n">
-        <v>56.2057</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8.2302</v>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L67" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -3566,39 +4328,39 @@
       <c r="C68" t="s">
         <v>16</v>
       </c>
-      <c r="D68" t="n">
-        <v>55.9149</v>
-      </c>
-      <c r="E68" t="n">
-        <v>8.46</v>
+      <c r="D68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" t="s">
+        <v>227</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L68" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -3606,39 +4368,39 @@
       <c r="C69" t="s">
         <v>16</v>
       </c>
-      <c r="D69" t="n">
-        <v>56.3482</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10.0248</v>
+      <c r="D69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" t="s">
+        <v>230</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -3646,39 +4408,39 @@
       <c r="C70" t="s">
         <v>16</v>
       </c>
-      <c r="D70" t="n">
-        <v>56.6193</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10.0992</v>
+      <c r="D70" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" t="s">
+        <v>233</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L70" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -3686,39 +4448,39 @@
       <c r="C71" t="s">
         <v>16</v>
       </c>
-      <c r="D71" t="n">
-        <v>56.2486</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9.472</v>
+      <c r="D71" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" t="s">
+        <v>236</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -3726,39 +4488,39 @@
       <c r="C72" t="s">
         <v>16</v>
       </c>
-      <c r="D72" t="n">
-        <v>56.7583</v>
-      </c>
-      <c r="E72" t="n">
-        <v>9.7728</v>
+      <c r="D72" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" t="s">
+        <v>239</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -3766,39 +4528,39 @@
       <c r="C73" t="s">
         <v>16</v>
       </c>
-      <c r="D73" t="n">
-        <v>56.5324</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9.8509</v>
+      <c r="D73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" t="s">
+        <v>242</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -3806,39 +4568,39 @@
       <c r="C74" t="s">
         <v>16</v>
       </c>
-      <c r="D74" t="n">
-        <v>56.8367</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9.5527</v>
+      <c r="D74" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" t="s">
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -3846,39 +4608,39 @@
       <c r="C75" t="s">
         <v>16</v>
       </c>
-      <c r="D75" t="n">
-        <v>56.4439</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9.8177</v>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" t="s">
+        <v>248</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -3886,39 +4648,39 @@
       <c r="C76" t="s">
         <v>16</v>
       </c>
-      <c r="D76" t="n">
-        <v>56.4691</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9.3367</v>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L76" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -3926,39 +4688,39 @@
       <c r="C77" t="s">
         <v>16</v>
       </c>
-      <c r="D77" t="n">
-        <v>56.3503</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10.3274</v>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" t="s">
+        <v>254</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -3966,39 +4728,39 @@
       <c r="C78" t="s">
         <v>16</v>
       </c>
-      <c r="D78" t="n">
-        <v>56.5073</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9.9039</v>
+      <c r="D78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>257</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L78" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -4006,39 +4768,39 @@
       <c r="C79" t="s">
         <v>16</v>
       </c>
-      <c r="D79" t="n">
-        <v>56.1712</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8.5047</v>
+      <c r="D79" t="s">
+        <v>259</v>
+      </c>
+      <c r="E79" t="s">
+        <v>260</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -4046,39 +4808,39 @@
       <c r="C80" t="s">
         <v>16</v>
       </c>
-      <c r="D80" t="n">
-        <v>56.7541</v>
-      </c>
-      <c r="E80" t="n">
-        <v>9.7236</v>
+      <c r="D80" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" t="s">
+        <v>263</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L80" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -4086,39 +4848,39 @@
       <c r="C81" t="s">
         <v>16</v>
       </c>
-      <c r="D81" t="n">
-        <v>56.6081</v>
-      </c>
-      <c r="E81" t="n">
-        <v>9.4276</v>
+      <c r="D81" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" t="s">
+        <v>266</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M81" s="3"/>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -4126,39 +4888,39 @@
       <c r="C82" t="s">
         <v>16</v>
       </c>
-      <c r="D82" t="n">
-        <v>56.7771</v>
-      </c>
-      <c r="E82" t="n">
-        <v>9.6177</v>
+      <c r="D82" t="s">
+        <v>268</v>
+      </c>
+      <c r="E82" t="s">
+        <v>269</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L82" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -4166,39 +4928,39 @@
       <c r="C83" t="s">
         <v>16</v>
       </c>
-      <c r="D83" t="n">
-        <v>56.5168</v>
-      </c>
-      <c r="E83" t="n">
-        <v>10.4584</v>
+      <c r="D83" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" t="s">
+        <v>272</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L83" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -4206,39 +4968,39 @@
       <c r="C84" t="s">
         <v>16</v>
       </c>
-      <c r="D84" t="n">
-        <v>56.5633</v>
-      </c>
-      <c r="E84" t="n">
-        <v>9.3783</v>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
+        <v>275</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L84" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M84" s="3"/>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -4246,39 +5008,39 @@
       <c r="C85" t="s">
         <v>16</v>
       </c>
-      <c r="D85" t="n">
-        <v>56.7735</v>
-      </c>
-      <c r="E85" t="n">
-        <v>9.3967</v>
+      <c r="D85" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" t="s">
+        <v>278</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -4286,33 +5048,33 @@
       <c r="C86" t="s">
         <v>16</v>
       </c>
-      <c r="D86" t="n">
-        <v>56.4032</v>
-      </c>
-      <c r="E86" t="n">
-        <v>10.2268</v>
+      <c r="D86" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" t="s">
+        <v>281</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -4320,39 +5082,39 @@
       <c r="C87" t="s">
         <v>16</v>
       </c>
-      <c r="D87" t="n">
-        <v>56.4625</v>
-      </c>
-      <c r="E87" t="n">
-        <v>10.6527</v>
+      <c r="D87" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" t="s">
+        <v>284</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L87" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M87" s="3"/>
       <c r="N87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -4360,39 +5122,39 @@
       <c r="C88" t="s">
         <v>16</v>
       </c>
-      <c r="D88" t="n">
-        <v>56.769</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.6176</v>
+      <c r="D88" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" t="s">
+        <v>287</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L88" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M88" s="3"/>
       <c r="N88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -4400,39 +5162,39 @@
       <c r="C89" t="s">
         <v>16</v>
       </c>
-      <c r="D89" t="n">
-        <v>56.772</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9.724</v>
+      <c r="D89" t="s">
+        <v>289</v>
+      </c>
+      <c r="E89" t="s">
+        <v>290</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L89" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M89" s="3"/>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -4440,39 +5202,39 @@
       <c r="C90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" t="n">
-        <v>56.7637</v>
-      </c>
-      <c r="E90" t="n">
-        <v>9.7725</v>
+      <c r="D90" t="s">
+        <v>292</v>
+      </c>
+      <c r="E90" t="s">
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L90" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M90" s="3"/>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -4480,39 +5242,39 @@
       <c r="C91" t="s">
         <v>16</v>
       </c>
-      <c r="D91" t="n">
-        <v>56.1407</v>
-      </c>
-      <c r="E91" t="n">
-        <v>9.4868</v>
+      <c r="D91" t="s">
+        <v>295</v>
+      </c>
+      <c r="E91" t="s">
+        <v>296</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L91" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M91" s="3"/>
       <c r="N91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -4520,39 +5282,39 @@
       <c r="C92" t="s">
         <v>16</v>
       </c>
-      <c r="D92" t="n">
-        <v>57.2951</v>
-      </c>
-      <c r="E92" t="n">
-        <v>9.9414</v>
+      <c r="D92" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" t="s">
+        <v>299</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L92" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M92" s="3"/>
       <c r="N92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -4560,39 +5322,39 @@
       <c r="C93" t="s">
         <v>16</v>
       </c>
-      <c r="D93" t="n">
-        <v>55.6288</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11.6834</v>
+      <c r="D93" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" t="s">
+        <v>302</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K93" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M93" s="3"/>
       <c r="N93" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -4600,39 +5362,39 @@
       <c r="C94" t="s">
         <v>16</v>
       </c>
-      <c r="D94" t="n">
-        <v>55.9469</v>
-      </c>
-      <c r="E94" t="n">
-        <v>10.1556</v>
+      <c r="D94" t="s">
+        <v>304</v>
+      </c>
+      <c r="E94" t="s">
+        <v>305</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L94" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M94" s="3"/>
       <c r="N94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -4640,39 +5402,39 @@
       <c r="C95" t="s">
         <v>16</v>
       </c>
-      <c r="D95" t="n">
-        <v>56.202</v>
-      </c>
-      <c r="E95" t="n">
-        <v>9.777</v>
+      <c r="D95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E95" t="s">
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M95" s="3"/>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -4680,39 +5442,39 @@
       <c r="C96" t="s">
         <v>16</v>
       </c>
-      <c r="D96" t="n">
-        <v>56.6708</v>
-      </c>
-      <c r="E96" t="n">
-        <v>8.8735</v>
+      <c r="D96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E96" t="s">
+        <v>311</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M96" s="3"/>
       <c r="N96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -4720,39 +5482,39 @@
       <c r="C97" t="s">
         <v>16</v>
       </c>
-      <c r="D97" t="n">
-        <v>57.4633</v>
-      </c>
-      <c r="E97" t="n">
-        <v>10.207</v>
+      <c r="D97" t="s">
+        <v>313</v>
+      </c>
+      <c r="E97" t="s">
+        <v>314</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L97" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -4760,39 +5522,39 @@
       <c r="C98" t="s">
         <v>16</v>
       </c>
-      <c r="D98" t="n">
-        <v>56.3298</v>
-      </c>
-      <c r="E98" t="n">
-        <v>10.7759</v>
+      <c r="D98" t="s">
+        <v>316</v>
+      </c>
+      <c r="E98" t="s">
+        <v>317</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L98" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M98" s="3"/>
       <c r="N98" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -4800,39 +5562,39 @@
       <c r="C99" t="s">
         <v>16</v>
       </c>
-      <c r="D99" t="n">
-        <v>57.3899</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10.1314</v>
+      <c r="D99" t="s">
+        <v>319</v>
+      </c>
+      <c r="E99" t="s">
+        <v>320</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M99" s="3"/>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -4840,39 +5602,39 @@
       <c r="C100" t="s">
         <v>16</v>
       </c>
-      <c r="D100" t="n">
-        <v>57.1242</v>
-      </c>
-      <c r="E100" t="n">
-        <v>10.0942</v>
+      <c r="D100" t="s">
+        <v>322</v>
+      </c>
+      <c r="E100" t="s">
+        <v>323</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L100" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M100" s="3"/>
       <c r="N100" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -4880,39 +5642,39 @@
       <c r="C101" t="s">
         <v>16</v>
       </c>
-      <c r="D101" t="n">
-        <v>56.2066</v>
-      </c>
-      <c r="E101" t="n">
-        <v>8.2302</v>
+      <c r="D101" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" t="s">
+        <v>224</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L101" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M101" s="3"/>
       <c r="N101" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -4920,39 +5682,39 @@
       <c r="C102" t="s">
         <v>16</v>
       </c>
-      <c r="D102" t="n">
-        <v>55.8514</v>
-      </c>
-      <c r="E102" t="n">
-        <v>8.3331</v>
+      <c r="D102" t="s">
+        <v>327</v>
+      </c>
+      <c r="E102" t="s">
+        <v>328</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J102" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L102" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M102" s="3"/>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
@@ -4960,39 +5722,39 @@
       <c r="C103" t="s">
         <v>16</v>
       </c>
-      <c r="D103" t="n">
-        <v>57.3674</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10.1582</v>
+      <c r="D103" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" t="s">
+        <v>331</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L103" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M103" s="3"/>
       <c r="N103" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -5000,39 +5762,39 @@
       <c r="C104" t="s">
         <v>16</v>
       </c>
-      <c r="D104" t="n">
-        <v>55.8391</v>
-      </c>
-      <c r="E104" t="n">
-        <v>8.5888</v>
+      <c r="D104" t="s">
+        <v>333</v>
+      </c>
+      <c r="E104" t="s">
+        <v>334</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K104" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M104" s="3"/>
       <c r="N104" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -5040,39 +5802,39 @@
       <c r="C105" t="s">
         <v>16</v>
       </c>
-      <c r="D105" t="n">
-        <v>55.8082</v>
-      </c>
-      <c r="E105" t="n">
-        <v>8.5014</v>
+      <c r="D105" t="s">
+        <v>336</v>
+      </c>
+      <c r="E105" t="s">
+        <v>337</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L105" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M105" s="3"/>
       <c r="N105" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -5080,39 +5842,39 @@
       <c r="C106" t="s">
         <v>16</v>
       </c>
-      <c r="D106" t="n">
-        <v>56.9407</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10.1217</v>
+      <c r="D106" t="s">
+        <v>339</v>
+      </c>
+      <c r="E106" t="s">
+        <v>340</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L106" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M106" s="3"/>
       <c r="N106" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -5120,39 +5882,39 @@
       <c r="C107" t="s">
         <v>16</v>
       </c>
-      <c r="D107" t="n">
-        <v>55.6875</v>
-      </c>
-      <c r="E107" t="n">
-        <v>8.5141</v>
+      <c r="D107" t="s">
+        <v>342</v>
+      </c>
+      <c r="E107" t="s">
+        <v>343</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J107" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M107" s="3"/>
       <c r="N107" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -5160,39 +5922,39 @@
       <c r="C108" t="s">
         <v>16</v>
       </c>
-      <c r="D108" t="n">
-        <v>57.2673</v>
-      </c>
-      <c r="E108" t="n">
-        <v>10.2918</v>
+      <c r="D108" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" t="s">
+        <v>346</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L108" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M108" s="3"/>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
@@ -5200,33 +5962,33 @@
       <c r="C109" t="s">
         <v>16</v>
       </c>
-      <c r="D109" t="n">
-        <v>57.1339</v>
-      </c>
-      <c r="E109" t="n">
-        <v>10.1441</v>
+      <c r="D109" t="s">
+        <v>348</v>
+      </c>
+      <c r="E109" t="s">
+        <v>349</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J109" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>350</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -5234,33 +5996,33 @@
       <c r="C110" t="s">
         <v>16</v>
       </c>
-      <c r="D110" t="n">
-        <v>55.8796</v>
-      </c>
-      <c r="E110" t="n">
-        <v>8.4045</v>
+      <c r="D110" t="s">
+        <v>351</v>
+      </c>
+      <c r="E110" t="s">
+        <v>352</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -5268,39 +6030,39 @@
       <c r="C111" t="s">
         <v>16</v>
       </c>
-      <c r="D111" t="n">
-        <v>56.1276</v>
-      </c>
-      <c r="E111" t="n">
-        <v>8.9881</v>
+      <c r="D111" t="s">
+        <v>354</v>
+      </c>
+      <c r="E111" t="s">
+        <v>355</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J111" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L111" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -5308,39 +6070,39 @@
       <c r="C112" t="s">
         <v>16</v>
       </c>
-      <c r="D112" t="n">
-        <v>56.0367</v>
-      </c>
-      <c r="E112" t="n">
-        <v>8.362</v>
+      <c r="D112" t="s">
+        <v>357</v>
+      </c>
+      <c r="E112" t="s">
+        <v>358</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L112" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M112" s="3"/>
       <c r="N112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -5348,39 +6110,39 @@
       <c r="C113" t="s">
         <v>16</v>
       </c>
-      <c r="D113" t="n">
-        <v>56.2024</v>
-      </c>
-      <c r="E113" t="n">
-        <v>8.2786</v>
+      <c r="D113" t="s">
+        <v>360</v>
+      </c>
+      <c r="E113" t="s">
+        <v>361</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M113" s="3"/>
       <c r="N113" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -5388,39 +6150,39 @@
       <c r="C114" t="s">
         <v>16</v>
       </c>
-      <c r="D114" t="n">
-        <v>56.0046</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9.6981</v>
+      <c r="D114" t="s">
+        <v>363</v>
+      </c>
+      <c r="E114" t="s">
+        <v>364</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L114" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M114" s="3"/>
       <c r="N114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
@@ -5428,39 +6190,39 @@
       <c r="C115" t="s">
         <v>16</v>
       </c>
-      <c r="D115" t="n">
-        <v>55.7136</v>
-      </c>
-      <c r="E115" t="n">
-        <v>8.3426</v>
+      <c r="D115" t="s">
+        <v>366</v>
+      </c>
+      <c r="E115" t="s">
+        <v>367</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L115" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M115" s="3"/>
       <c r="N115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
@@ -5468,33 +6230,33 @@
       <c r="C116" t="s">
         <v>16</v>
       </c>
-      <c r="D116" t="n">
-        <v>55.7544</v>
-      </c>
-      <c r="E116" t="n">
-        <v>8.4176</v>
+      <c r="D116" t="s">
+        <v>369</v>
+      </c>
+      <c r="E116" t="s">
+        <v>370</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -5502,39 +6264,39 @@
       <c r="C117" t="s">
         <v>16</v>
       </c>
-      <c r="D117" t="n">
-        <v>56.1768</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9.2317</v>
+      <c r="D117" t="s">
+        <v>372</v>
+      </c>
+      <c r="E117" t="s">
+        <v>373</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L117" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M117" s="3"/>
       <c r="N117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>374</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
@@ -5542,39 +6304,39 @@
       <c r="C118" t="s">
         <v>16</v>
       </c>
-      <c r="D118" t="n">
-        <v>55.857</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9.5637</v>
+      <c r="D118" t="s">
+        <v>375</v>
+      </c>
+      <c r="E118" t="s">
+        <v>376</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K118" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L118" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M118" s="3"/>
       <c r="N118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -5582,39 +6344,39 @@
       <c r="C119" t="s">
         <v>16</v>
       </c>
-      <c r="D119" t="n">
-        <v>56.0499</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9.5017</v>
+      <c r="D119" t="s">
+        <v>378</v>
+      </c>
+      <c r="E119" t="s">
+        <v>379</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L119" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M119" s="3"/>
       <c r="N119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -5622,39 +6384,39 @@
       <c r="C120" t="s">
         <v>16</v>
       </c>
-      <c r="D120" t="n">
-        <v>56.4516</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9.0283</v>
+      <c r="D120" t="s">
+        <v>381</v>
+      </c>
+      <c r="E120" t="s">
+        <v>382</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K120" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L120" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M120" s="3"/>
       <c r="N120" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>146</v>
+        <v>383</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -5662,39 +6424,39 @@
       <c r="C121" t="s">
         <v>16</v>
       </c>
-      <c r="D121" t="n">
-        <v>55.9455</v>
-      </c>
-      <c r="E121" t="n">
-        <v>10.1556</v>
+      <c r="D121" t="s">
+        <v>384</v>
+      </c>
+      <c r="E121" t="s">
+        <v>305</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L121" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M121" s="3"/>
       <c r="N121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>385</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -5702,39 +6464,39 @@
       <c r="C122" t="s">
         <v>16</v>
       </c>
-      <c r="D122" t="n">
-        <v>56.2759</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9.0058</v>
+      <c r="D122" t="s">
+        <v>386</v>
+      </c>
+      <c r="E122" t="s">
+        <v>387</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L122" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M122" s="3"/>
       <c r="N122" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>148</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
@@ -5742,39 +6504,39 @@
       <c r="C123" t="s">
         <v>16</v>
       </c>
-      <c r="D123" t="n">
-        <v>55.7539</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.2071</v>
+      <c r="D123" t="s">
+        <v>389</v>
+      </c>
+      <c r="E123" t="s">
+        <v>390</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L123" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -5782,39 +6544,39 @@
       <c r="C124" t="s">
         <v>16</v>
       </c>
-      <c r="D124" t="n">
-        <v>55.6642</v>
-      </c>
-      <c r="E124" t="n">
-        <v>11.8651</v>
+      <c r="D124" t="s">
+        <v>392</v>
+      </c>
+      <c r="E124" t="s">
+        <v>393</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L124" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M124" s="3"/>
       <c r="N124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -5822,39 +6584,39 @@
       <c r="C125" t="s">
         <v>16</v>
       </c>
-      <c r="D125" t="n">
-        <v>55.7479</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.2623</v>
+      <c r="D125" t="s">
+        <v>395</v>
+      </c>
+      <c r="E125" t="s">
+        <v>396</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L125" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M125" s="3"/>
       <c r="N125" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
@@ -5862,41 +6624,41 @@
       <c r="C126" t="s">
         <v>16</v>
       </c>
-      <c r="D126" t="n">
-        <v>55.7748</v>
-      </c>
-      <c r="E126" t="n">
-        <v>11.996</v>
+      <c r="D126" t="s">
+        <v>398</v>
+      </c>
+      <c r="E126" t="s">
+        <v>399</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K126" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L126" t="s">
-        <v>153</v>
+        <v>401</v>
       </c>
       <c r="M126" t="s">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="N126" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
@@ -5904,39 +6666,39 @@
       <c r="C127" t="s">
         <v>16</v>
       </c>
-      <c r="D127" t="n">
-        <v>55.9378</v>
-      </c>
-      <c r="E127" t="n">
-        <v>8.5493</v>
+      <c r="D127" t="s">
+        <v>404</v>
+      </c>
+      <c r="E127" t="s">
+        <v>405</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L127" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M127" s="3"/>
       <c r="N127" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -5944,39 +6706,39 @@
       <c r="C128" t="s">
         <v>16</v>
       </c>
-      <c r="D128" t="n">
-        <v>56.4798</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.7752</v>
+      <c r="D128" t="s">
+        <v>407</v>
+      </c>
+      <c r="E128" t="s">
+        <v>408</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L128" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M128" s="3"/>
       <c r="N128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>409</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
@@ -5984,34 +6746,34 @@
       <c r="C129" t="s">
         <v>16</v>
       </c>
-      <c r="D129" t="n">
-        <v>56.362</v>
-      </c>
-      <c r="E129" t="n">
-        <v>10.3166</v>
+      <c r="D129" t="s">
+        <v>410</v>
+      </c>
+      <c r="E129" t="s">
+        <v>411</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L129" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M129" s="3"/>
       <c r="N129" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6030,10 +6792,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2">
@@ -6041,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3">
@@ -6049,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
@@ -6057,7 +6819,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
@@ -6065,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6">
@@ -6073,7 +6835,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
@@ -6081,7 +6843,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8">
@@ -6089,7 +6851,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -6097,7 +6859,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10">
@@ -6105,7 +6867,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11">
@@ -6113,7 +6875,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12">
@@ -6121,7 +6883,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13">
@@ -6129,7 +6891,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14">
@@ -6137,7 +6899,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15">
@@ -6145,7 +6907,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P04_6/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_6/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -78,6 +78,9 @@
     <t xml:space="preserve">6900</t>
   </si>
   <si>
+    <t xml:space="preserve">Everdrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soil</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t xml:space="preserve">9.6901</t>
   </si>
   <si>
+    <t xml:space="preserve">Erritsø</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05767</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
     <t xml:space="preserve">10.2947</t>
   </si>
   <si>
+    <t xml:space="preserve">Vejle</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05768</t>
   </si>
   <si>
@@ -123,6 +132,9 @@
     <t xml:space="preserve">6200</t>
   </si>
   <si>
+    <t xml:space="preserve">Bandholm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poales, grass</t>
   </si>
   <si>
@@ -135,6 +147,9 @@
     <t xml:space="preserve">11.5816</t>
   </si>
   <si>
+    <t xml:space="preserve">Nørre Jernløse</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05770</t>
   </si>
   <si>
@@ -144,6 +159,9 @@
     <t xml:space="preserve">8.2262</t>
   </si>
   <si>
+    <t xml:space="preserve">Nees</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05771</t>
   </si>
   <si>
@@ -153,6 +171,9 @@
     <t xml:space="preserve">9.1056</t>
   </si>
   <si>
+    <t xml:space="preserve">Malt</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05772</t>
   </si>
   <si>
@@ -162,6 +183,9 @@
     <t xml:space="preserve">11.9828</t>
   </si>
   <si>
+    <t xml:space="preserve">Beldringe</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05773</t>
   </si>
   <si>
@@ -171,6 +195,9 @@
     <t xml:space="preserve">8.8302</t>
   </si>
   <si>
+    <t xml:space="preserve">Hjortlund</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05774</t>
   </si>
   <si>
@@ -180,6 +207,9 @@
     <t xml:space="preserve">8.8226</t>
   </si>
   <si>
+    <t xml:space="preserve">Sankt Katharine</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05775</t>
   </si>
   <si>
@@ -189,6 +219,9 @@
     <t xml:space="preserve">8.625</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiphede</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05776</t>
   </si>
   <si>
@@ -198,6 +231,9 @@
     <t xml:space="preserve">8.2465</t>
   </si>
   <si>
+    <t xml:space="preserve">Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05778</t>
   </si>
   <si>
@@ -207,6 +243,9 @@
     <t xml:space="preserve">9.1636</t>
   </si>
   <si>
+    <t xml:space="preserve">Langelund</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05779</t>
   </si>
   <si>
@@ -216,6 +255,9 @@
     <t xml:space="preserve">9.2612</t>
   </si>
   <si>
+    <t xml:space="preserve">Tinglev</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05781</t>
   </si>
   <si>
@@ -225,6 +267,9 @@
     <t xml:space="preserve">11.4624</t>
   </si>
   <si>
+    <t xml:space="preserve">Stigs Bjergby-Mørkøv</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05783</t>
   </si>
   <si>
@@ -234,6 +279,9 @@
     <t xml:space="preserve">11.5874</t>
   </si>
   <si>
+    <t xml:space="preserve">Højby</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05784</t>
   </si>
   <si>
@@ -243,6 +291,9 @@
     <t xml:space="preserve">12.113</t>
   </si>
   <si>
+    <t xml:space="preserve">Ramløse</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05785</t>
   </si>
   <si>
@@ -252,6 +303,9 @@
     <t xml:space="preserve">12.2148</t>
   </si>
   <si>
+    <t xml:space="preserve">Helsinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05786</t>
   </si>
   <si>
@@ -261,6 +315,9 @@
     <t xml:space="preserve">10.3453</t>
   </si>
   <si>
+    <t xml:space="preserve">Brahetrolleborg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05788</t>
   </si>
   <si>
@@ -270,6 +327,9 @@
     <t xml:space="preserve">8.5136</t>
   </si>
   <si>
+    <t xml:space="preserve">Jerne</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05789</t>
   </si>
   <si>
@@ -279,6 +339,9 @@
     <t xml:space="preserve">9.3332</t>
   </si>
   <si>
+    <t xml:space="preserve">Kliplev</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05794</t>
   </si>
   <si>
@@ -288,6 +351,9 @@
     <t xml:space="preserve">9.9509</t>
   </si>
   <si>
+    <t xml:space="preserve">Notmark</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05799</t>
   </si>
   <si>
@@ -297,6 +363,9 @@
     <t xml:space="preserve">10.1505</t>
   </si>
   <si>
+    <t xml:space="preserve">Odder</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05805</t>
   </si>
   <si>
@@ -306,6 +375,9 @@
     <t xml:space="preserve">11.5777</t>
   </si>
   <si>
+    <t xml:space="preserve">Butterup-Tuse</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05806</t>
   </si>
   <si>
@@ -315,6 +387,9 @@
     <t xml:space="preserve">11.6005</t>
   </si>
   <si>
+    <t xml:space="preserve">Nørre Asmindrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05807</t>
   </si>
   <si>
@@ -324,6 +399,9 @@
     <t xml:space="preserve">8.8749</t>
   </si>
   <si>
+    <t xml:space="preserve">Åstrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05808</t>
   </si>
   <si>
@@ -333,6 +411,9 @@
     <t xml:space="preserve">9.4486</t>
   </si>
   <si>
+    <t xml:space="preserve">Taps</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05809</t>
   </si>
   <si>
@@ -351,6 +432,9 @@
     <t xml:space="preserve">8.6699</t>
   </si>
   <si>
+    <t xml:space="preserve">Årre</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05813</t>
   </si>
   <si>
@@ -363,6 +447,9 @@
     <t xml:space="preserve">6100</t>
   </si>
   <si>
+    <t xml:space="preserve">Birket</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poales, Cereal</t>
   </si>
   <si>
@@ -375,6 +462,9 @@
     <t xml:space="preserve">8.3416</t>
   </si>
   <si>
+    <t xml:space="preserve">Møborg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05815</t>
   </si>
   <si>
@@ -384,6 +474,9 @@
     <t xml:space="preserve">10.242</t>
   </si>
   <si>
+    <t xml:space="preserve">Vigerslev</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05817</t>
   </si>
   <si>
@@ -393,6 +486,9 @@
     <t xml:space="preserve">10.8402</t>
   </si>
   <si>
+    <t xml:space="preserve">Tranekær</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05823</t>
   </si>
   <si>
@@ -402,6 +498,9 @@
     <t xml:space="preserve">9.8566</t>
   </si>
   <si>
+    <t xml:space="preserve">Egen</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05825</t>
   </si>
   <si>
@@ -411,6 +510,9 @@
     <t xml:space="preserve">9.9638</t>
   </si>
   <si>
+    <t xml:space="preserve">Brenderup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05831</t>
   </si>
   <si>
@@ -420,6 +522,9 @@
     <t xml:space="preserve">11.2694</t>
   </si>
   <si>
+    <t xml:space="preserve">Kirke Stillinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05833</t>
   </si>
   <si>
@@ -429,6 +534,9 @@
     <t xml:space="preserve">9.2145</t>
   </si>
   <si>
+    <t xml:space="preserve">Andst</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05834</t>
   </si>
   <si>
@@ -438,6 +546,9 @@
     <t xml:space="preserve">11.8561</t>
   </si>
   <si>
+    <t xml:space="preserve">Teestrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05835</t>
   </si>
   <si>
@@ -447,6 +558,9 @@
     <t xml:space="preserve">12.3535</t>
   </si>
   <si>
+    <t xml:space="preserve">Esbønderup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05836</t>
   </si>
   <si>
@@ -456,6 +570,9 @@
     <t xml:space="preserve">9.3721</t>
   </si>
   <si>
+    <t xml:space="preserve">Øster Løgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05837</t>
   </si>
   <si>
@@ -474,6 +591,9 @@
     <t xml:space="preserve">9.9753</t>
   </si>
   <si>
+    <t xml:space="preserve">Vedslet</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05839</t>
   </si>
   <si>
@@ -492,6 +612,9 @@
     <t xml:space="preserve">11.2637</t>
   </si>
   <si>
+    <t xml:space="preserve">Ubby</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05847</t>
   </si>
   <si>
@@ -501,6 +624,9 @@
     <t xml:space="preserve">10.7773</t>
   </si>
   <si>
+    <t xml:space="preserve">Tullebølle</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05848</t>
   </si>
   <si>
@@ -510,6 +636,9 @@
     <t xml:space="preserve">12.4174</t>
   </si>
   <si>
+    <t xml:space="preserve">Borre</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05858</t>
   </si>
   <si>
@@ -519,6 +648,9 @@
     <t xml:space="preserve">8.5451</t>
   </si>
   <si>
+    <t xml:space="preserve">Tjæreborg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05860</t>
   </si>
   <si>
@@ -528,6 +660,9 @@
     <t xml:space="preserve">11.5638</t>
   </si>
   <si>
+    <t xml:space="preserve">Fuglse</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05868</t>
   </si>
   <si>
@@ -546,6 +681,9 @@
     <t xml:space="preserve">10.0064</t>
   </si>
   <si>
+    <t xml:space="preserve">Helnæs</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05886</t>
   </si>
   <si>
@@ -555,6 +693,9 @@
     <t xml:space="preserve">11.9</t>
   </si>
   <si>
+    <t xml:space="preserve">Kastrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05892</t>
   </si>
   <si>
@@ -564,6 +705,9 @@
     <t xml:space="preserve">8.6988</t>
   </si>
   <si>
+    <t xml:space="preserve">Nørre Vium</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05910</t>
   </si>
   <si>
@@ -573,6 +717,9 @@
     <t xml:space="preserve">9.8535</t>
   </si>
   <si>
+    <t xml:space="preserve">Øster Hjermitslev</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05911</t>
   </si>
   <si>
@@ -582,6 +729,9 @@
     <t xml:space="preserve">8.3032</t>
   </si>
   <si>
+    <t xml:space="preserve">Hee</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05912</t>
   </si>
   <si>
@@ -591,6 +741,9 @@
     <t xml:space="preserve">10.3115</t>
   </si>
   <si>
+    <t xml:space="preserve">Øster Alling</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05913</t>
   </si>
   <si>
@@ -600,6 +753,9 @@
     <t xml:space="preserve">9.9239</t>
   </si>
   <si>
+    <t xml:space="preserve">Astrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05914</t>
   </si>
   <si>
@@ -609,6 +765,9 @@
     <t xml:space="preserve">9.3234</t>
   </si>
   <si>
+    <t xml:space="preserve">Farsø</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05915</t>
   </si>
   <si>
@@ -618,6 +777,9 @@
     <t xml:space="preserve">10.0629</t>
   </si>
   <si>
+    <t xml:space="preserve">Komdrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05916</t>
   </si>
   <si>
@@ -627,6 +789,9 @@
     <t xml:space="preserve">10.7358</t>
   </si>
   <si>
+    <t xml:space="preserve">Rosmus</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05917</t>
   </si>
   <si>
@@ -636,6 +801,9 @@
     <t xml:space="preserve">9.8185</t>
   </si>
   <si>
+    <t xml:space="preserve">Ålum</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05918</t>
   </si>
   <si>
@@ -645,6 +813,9 @@
     <t xml:space="preserve">10.3024</t>
   </si>
   <si>
+    <t xml:space="preserve">Torslev</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05919</t>
   </si>
   <si>
@@ -654,6 +825,9 @@
     <t xml:space="preserve">9.5841</t>
   </si>
   <si>
+    <t xml:space="preserve">Durup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05921</t>
   </si>
   <si>
@@ -663,6 +837,9 @@
     <t xml:space="preserve">10.3536</t>
   </si>
   <si>
+    <t xml:space="preserve">Mørke</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05922</t>
   </si>
   <si>
@@ -672,6 +849,9 @@
     <t xml:space="preserve">9.5368</t>
   </si>
   <si>
+    <t xml:space="preserve">Hinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05923</t>
   </si>
   <si>
@@ -681,6 +861,9 @@
     <t xml:space="preserve">10.1513</t>
   </si>
   <si>
+    <t xml:space="preserve">Vester Hassing</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05924</t>
   </si>
   <si>
@@ -690,6 +873,9 @@
     <t xml:space="preserve">8.2302</t>
   </si>
   <si>
+    <t xml:space="preserve">Stadil</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05925</t>
   </si>
   <si>
@@ -699,6 +885,9 @@
     <t xml:space="preserve">8.46</t>
   </si>
   <si>
+    <t xml:space="preserve">Lønborg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05926</t>
   </si>
   <si>
@@ -708,6 +897,9 @@
     <t xml:space="preserve">10.0248</t>
   </si>
   <si>
+    <t xml:space="preserve">Nørre Galten</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05927</t>
   </si>
   <si>
@@ -717,6 +909,9 @@
     <t xml:space="preserve">10.0992</t>
   </si>
   <si>
+    <t xml:space="preserve">Enslev</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05928</t>
   </si>
   <si>
@@ -726,6 +921,9 @@
     <t xml:space="preserve">9.472</t>
   </si>
   <si>
+    <t xml:space="preserve">Serup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05929</t>
   </si>
   <si>
@@ -735,6 +933,9 @@
     <t xml:space="preserve">9.7728</t>
   </si>
   <si>
+    <t xml:space="preserve">Ravnkilde</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05930</t>
   </si>
   <si>
@@ -744,6 +945,9 @@
     <t xml:space="preserve">9.8509</t>
   </si>
   <si>
+    <t xml:space="preserve">Nørbæk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05931</t>
   </si>
   <si>
@@ -753,6 +957,9 @@
     <t xml:space="preserve">9.5527</t>
   </si>
   <si>
+    <t xml:space="preserve">Års</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05932</t>
   </si>
   <si>
@@ -762,6 +969,9 @@
     <t xml:space="preserve">9.8177</t>
   </si>
   <si>
+    <t xml:space="preserve">Vester Velling</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05934</t>
   </si>
   <si>
@@ -771,6 +981,9 @@
     <t xml:space="preserve">9.3367</t>
   </si>
   <si>
+    <t xml:space="preserve">Ravnstrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05936</t>
   </si>
   <si>
@@ -780,6 +993,9 @@
     <t xml:space="preserve">10.3274</t>
   </si>
   <si>
+    <t xml:space="preserve">Krogsbæk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05937</t>
   </si>
   <si>
@@ -789,6 +1005,9 @@
     <t xml:space="preserve">9.9039</t>
   </si>
   <si>
+    <t xml:space="preserve">Øster Bjerregrav</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05938</t>
   </si>
   <si>
@@ -798,6 +1017,9 @@
     <t xml:space="preserve">8.5047</t>
   </si>
   <si>
+    <t xml:space="preserve">Nørre Omme</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05939</t>
   </si>
   <si>
@@ -816,6 +1038,9 @@
     <t xml:space="preserve">9.4276</t>
   </si>
   <si>
+    <t xml:space="preserve">Låstrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05942</t>
   </si>
   <si>
@@ -825,6 +1050,9 @@
     <t xml:space="preserve">9.6177</t>
   </si>
   <si>
+    <t xml:space="preserve">Brorstrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05943</t>
   </si>
   <si>
@@ -834,6 +1062,9 @@
     <t xml:space="preserve">10.4584</t>
   </si>
   <si>
+    <t xml:space="preserve">Vivild</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05944</t>
   </si>
   <si>
@@ -843,6 +1074,9 @@
     <t xml:space="preserve">9.3783</t>
   </si>
   <si>
+    <t xml:space="preserve">Skals</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05945</t>
   </si>
   <si>
@@ -852,6 +1086,9 @@
     <t xml:space="preserve">9.3967</t>
   </si>
   <si>
+    <t xml:space="preserve">Vognsild</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05947</t>
   </si>
   <si>
@@ -861,6 +1098,9 @@
     <t xml:space="preserve">10.2268</t>
   </si>
   <si>
+    <t xml:space="preserve">Hørning</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05948</t>
   </si>
   <si>
@@ -870,6 +1110,9 @@
     <t xml:space="preserve">10.6527</t>
   </si>
   <si>
+    <t xml:space="preserve">Stenvad</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05953</t>
   </si>
   <si>
@@ -879,6 +1122,9 @@
     <t xml:space="preserve">9.6176</t>
   </si>
   <si>
+    <t xml:space="preserve">Kongens Tisted</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05958</t>
   </si>
   <si>
@@ -906,6 +1152,9 @@
     <t xml:space="preserve">9.4868</t>
   </si>
   <si>
+    <t xml:space="preserve">Them</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05969</t>
   </si>
   <si>
@@ -915,6 +1164,9 @@
     <t xml:space="preserve">9.9414</t>
   </si>
   <si>
+    <t xml:space="preserve">Brønderslev</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05972</t>
   </si>
   <si>
@@ -924,6 +1176,9 @@
     <t xml:space="preserve">11.6834</t>
   </si>
   <si>
+    <t xml:space="preserve">Kvanløse</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05975</t>
   </si>
   <si>
@@ -942,6 +1197,9 @@
     <t xml:space="preserve">9.777</t>
   </si>
   <si>
+    <t xml:space="preserve">Røgen</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05980</t>
   </si>
   <si>
@@ -951,6 +1209,9 @@
     <t xml:space="preserve">8.8735</t>
   </si>
   <si>
+    <t xml:space="preserve">Krejbjerg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05983</t>
   </si>
   <si>
@@ -960,6 +1221,9 @@
     <t xml:space="preserve">10.207</t>
   </si>
   <si>
+    <t xml:space="preserve">Hørmested</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05984</t>
   </si>
   <si>
@@ -978,6 +1242,9 @@
     <t xml:space="preserve">10.1314</t>
   </si>
   <si>
+    <t xml:space="preserve">Tårs</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05987</t>
   </si>
   <si>
@@ -987,6 +1254,9 @@
     <t xml:space="preserve">10.0942</t>
   </si>
   <si>
+    <t xml:space="preserve">Horsens</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05988</t>
   </si>
   <si>
@@ -1002,6 +1272,9 @@
     <t xml:space="preserve">8.3331</t>
   </si>
   <si>
+    <t xml:space="preserve">Hemmet</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05993</t>
   </si>
   <si>
@@ -1020,6 +1293,9 @@
     <t xml:space="preserve">8.5888</t>
   </si>
   <si>
+    <t xml:space="preserve">Ådum</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05996</t>
   </si>
   <si>
@@ -1029,6 +1305,9 @@
     <t xml:space="preserve">8.5014</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyne</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05997</t>
   </si>
   <si>
@@ -1038,6 +1317,9 @@
     <t xml:space="preserve">10.1217</t>
   </si>
   <si>
+    <t xml:space="preserve">Gudumholm</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06000</t>
   </si>
   <si>
@@ -1047,6 +1329,9 @@
     <t xml:space="preserve">8.5141</t>
   </si>
   <si>
+    <t xml:space="preserve">Varde</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06001</t>
   </si>
   <si>
@@ -1056,6 +1341,9 @@
     <t xml:space="preserve">10.2918</t>
   </si>
   <si>
+    <t xml:space="preserve">Voer</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06002</t>
   </si>
   <si>
@@ -1065,6 +1353,9 @@
     <t xml:space="preserve">10.1441</t>
   </si>
   <si>
+    <t xml:space="preserve">Hjallerup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06007</t>
   </si>
   <si>
@@ -1083,6 +1374,9 @@
     <t xml:space="preserve">8.9881</t>
   </si>
   <si>
+    <t xml:space="preserve">Freden</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06010</t>
   </si>
   <si>
@@ -1092,6 +1386,9 @@
     <t xml:space="preserve">8.362</t>
   </si>
   <si>
+    <t xml:space="preserve">Lem</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06015</t>
   </si>
   <si>
@@ -1110,6 +1407,9 @@
     <t xml:space="preserve">9.6981</t>
   </si>
   <si>
+    <t xml:space="preserve">Østbirk</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06023</t>
   </si>
   <si>
@@ -1119,6 +1419,9 @@
     <t xml:space="preserve">8.3426</t>
   </si>
   <si>
+    <t xml:space="preserve">Ovtrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06026</t>
   </si>
   <si>
@@ -1128,6 +1431,9 @@
     <t xml:space="preserve">8.4176</t>
   </si>
   <si>
+    <t xml:space="preserve">Kvong</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06031</t>
   </si>
   <si>
@@ -1137,6 +1443,9 @@
     <t xml:space="preserve">9.2317</t>
   </si>
   <si>
+    <t xml:space="preserve">Bording</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06032</t>
   </si>
   <si>
@@ -1146,6 +1455,9 @@
     <t xml:space="preserve">9.5637</t>
   </si>
   <si>
+    <t xml:space="preserve">Uldum</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06034</t>
   </si>
   <si>
@@ -1164,6 +1476,9 @@
     <t xml:space="preserve">9.0283</t>
   </si>
   <si>
+    <t xml:space="preserve">Vroue</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06037</t>
   </si>
   <si>
@@ -1179,6 +1494,9 @@
     <t xml:space="preserve">9.0058</t>
   </si>
   <si>
+    <t xml:space="preserve">Simmelkær</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06044</t>
   </si>
   <si>
@@ -1188,6 +1506,9 @@
     <t xml:space="preserve">12.2071</t>
   </si>
   <si>
+    <t xml:space="preserve">Stenløse</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06047</t>
   </si>
   <si>
@@ -1197,6 +1518,9 @@
     <t xml:space="preserve">11.8651</t>
   </si>
   <si>
+    <t xml:space="preserve">Rye</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06049</t>
   </si>
   <si>
@@ -1206,6 +1530,42 @@
     <t xml:space="preserve">12.2623</t>
   </si>
   <si>
+    <t xml:space="preserve">Veksø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD06055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skjern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD06931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD06932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hvilsager</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06053</t>
   </si>
   <si>
@@ -1218,37 +1578,13 @@
     <t xml:space="preserve">6710</t>
   </si>
   <si>
+    <t xml:space="preserve">Skuldelev</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malvids</t>
   </si>
   <si>
     <t xml:space="preserve">Brassicales, Rapeseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD06055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD06931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD06932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3166</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -1718,27 +2054,29 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1747,10 +2085,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1758,27 +2096,29 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1787,10 +2127,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1798,27 +2138,29 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1827,38 +2169,40 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1867,38 +2211,40 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1907,10 +2253,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1918,27 +2264,29 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1947,32 +2295,34 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1981,10 +2331,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1992,27 +2342,29 @@
       <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2021,38 +2373,40 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2061,10 +2415,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -2072,27 +2426,29 @@
       <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2101,10 +2457,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -2112,27 +2468,29 @@
       <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -2141,10 +2499,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2152,27 +2510,29 @@
       <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2181,10 +2541,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2192,27 +2552,29 @@
       <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2221,10 +2583,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -2232,27 +2594,29 @@
       <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2261,10 +2625,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -2272,27 +2636,29 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -2301,38 +2667,40 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2341,10 +2709,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2352,27 +2720,29 @@
       <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2381,10 +2751,10 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2392,27 +2762,29 @@
       <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -2421,10 +2793,10 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -2432,27 +2804,29 @@
       <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2461,10 +2835,10 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -2472,27 +2846,29 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2501,38 +2877,40 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2541,38 +2919,40 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2581,38 +2961,40 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -2621,38 +3003,40 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -2661,38 +3045,40 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -2701,10 +3087,10 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -2712,27 +3098,29 @@
       <c r="G27" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -2741,38 +3129,40 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2781,38 +3171,40 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -2821,10 +3213,10 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -2832,27 +3224,29 @@
       <c r="G30" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" t="s">
+        <v>139</v>
+      </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -2861,38 +3255,40 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2901,10 +3297,10 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -2912,27 +3308,29 @@
       <c r="G32" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" t="s">
+        <v>149</v>
+      </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2941,38 +3339,40 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>153</v>
+      </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2981,38 +3381,40 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>157</v>
+      </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -3021,38 +3423,40 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>161</v>
+      </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -3061,38 +3465,40 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H36" t="s">
+        <v>165</v>
+      </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -3101,38 +3507,40 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>169</v>
+      </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -3141,38 +3549,40 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -3181,10 +3591,10 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -3192,27 +3602,29 @@
       <c r="G39" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" t="s">
+        <v>177</v>
+      </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -3221,38 +3633,40 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>181</v>
+      </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -3261,10 +3675,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -3272,27 +3686,29 @@
       <c r="G41" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" t="s">
+        <v>185</v>
+      </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -3301,38 +3717,40 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="H42" t="s">
+        <v>153</v>
+      </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -3341,10 +3759,10 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3352,27 +3770,29 @@
       <c r="G43" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" t="s">
+        <v>192</v>
+      </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -3381,38 +3801,40 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>116</v>
+      </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3421,38 +3843,40 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H45" t="s">
+        <v>199</v>
+      </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -3461,10 +3885,10 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -3472,27 +3896,29 @@
       <c r="G46" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -3501,38 +3927,40 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>207</v>
+      </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -3541,10 +3969,10 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3552,27 +3980,29 @@
       <c r="G48" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" t="s">
+        <v>211</v>
+      </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -3581,38 +4011,40 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H49" t="s">
+        <v>215</v>
+      </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -3621,38 +4053,40 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H50" t="s">
+        <v>157</v>
+      </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -3661,10 +4095,10 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -3672,27 +4106,29 @@
       <c r="G51" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" t="s">
+        <v>222</v>
+      </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -3701,32 +4137,34 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" t="s">
+        <v>226</v>
+      </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -3735,32 +4173,34 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" t="s">
+        <v>230</v>
+      </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -3769,10 +4209,10 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -3780,27 +4220,29 @@
       <c r="G54" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" t="s">
+        <v>234</v>
+      </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -3809,38 +4251,40 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H55" t="s">
+        <v>238</v>
+      </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -3849,38 +4293,40 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H56" t="s">
+        <v>242</v>
+      </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -3889,38 +4335,40 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H57" t="s">
+        <v>246</v>
+      </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L57" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -3929,10 +4377,10 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -3940,27 +4388,29 @@
       <c r="G58" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" t="s">
+        <v>250</v>
+      </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -3969,38 +4419,40 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H59" t="s">
+        <v>254</v>
+      </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L59" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -4009,10 +4461,10 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4020,27 +4472,29 @@
       <c r="G60" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" t="s">
+        <v>258</v>
+      </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -4049,38 +4503,40 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H61" t="s">
+        <v>262</v>
+      </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -4089,10 +4545,10 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -4100,27 +4556,29 @@
       <c r="G62" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" t="s">
+        <v>266</v>
+      </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M62" s="3"/>
       <c r="N62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -4129,10 +4587,10 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -4140,27 +4598,29 @@
       <c r="G63" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" t="s">
+        <v>270</v>
+      </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -4169,10 +4629,10 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -4180,27 +4640,29 @@
       <c r="G64" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" t="s">
+        <v>274</v>
+      </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -4209,38 +4671,40 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H65" t="s">
+        <v>278</v>
+      </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -4249,38 +4713,40 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H66" t="s">
+        <v>282</v>
+      </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L66" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -4289,38 +4755,40 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
+        <v>286</v>
+      </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -4329,38 +4797,40 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H68" t="s">
+        <v>290</v>
+      </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -4369,38 +4839,40 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H69" t="s">
+        <v>294</v>
+      </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L69" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -4409,38 +4881,40 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="E70" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H70" t="s">
+        <v>298</v>
+      </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -4449,10 +4923,10 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="E71" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4460,27 +4934,29 @@
       <c r="G71" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" t="s">
+        <v>302</v>
+      </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -4489,38 +4965,40 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="E72" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H72" t="s">
+        <v>306</v>
+      </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -4529,38 +5007,40 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="E73" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H73" t="s">
+        <v>310</v>
+      </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -4569,10 +5049,10 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="E74" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -4580,27 +5060,29 @@
       <c r="G74" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" t="s">
+        <v>314</v>
+      </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -4609,38 +5091,40 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>318</v>
+      </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -4649,38 +5133,40 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H76" t="s">
+        <v>322</v>
+      </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -4689,10 +5175,10 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -4700,27 +5186,29 @@
       <c r="G77" t="s">
         <v>20</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" t="s">
+        <v>326</v>
+      </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -4729,38 +5217,40 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H78" t="s">
+        <v>330</v>
+      </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L78" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -4769,10 +5259,10 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="E79" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -4780,27 +5270,29 @@
       <c r="G79" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" t="s">
+        <v>334</v>
+      </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -4809,38 +5301,40 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="E80" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H80" t="s">
+        <v>306</v>
+      </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L80" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -4849,10 +5343,10 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="E81" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -4860,27 +5354,29 @@
       <c r="G81" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" t="s">
+        <v>341</v>
+      </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M81" s="3"/>
       <c r="N81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -4889,38 +5385,40 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="E82" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H82" t="s">
+        <v>345</v>
+      </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -4929,38 +5427,40 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="E83" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H83" t="s">
+        <v>349</v>
+      </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L83" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -4969,38 +5469,40 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H84" t="s">
+        <v>353</v>
+      </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M84" s="3"/>
       <c r="N84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -5009,38 +5511,40 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H85" t="s">
+        <v>357</v>
+      </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -5049,32 +5553,34 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="E86" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="H86" t="s">
+        <v>361</v>
+      </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -5083,38 +5589,40 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="E87" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H87" t="s">
+        <v>365</v>
+      </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M87" s="3"/>
       <c r="N87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -5123,38 +5631,40 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H88" t="s">
+        <v>369</v>
+      </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M88" s="3"/>
       <c r="N88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -5163,38 +5673,40 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E89" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H89" t="s">
+        <v>306</v>
+      </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L89" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M89" s="3"/>
       <c r="N89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -5203,38 +5715,40 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H90" t="s">
+        <v>306</v>
+      </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L90" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M90" s="3"/>
       <c r="N90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -5243,38 +5757,40 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="E91" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H91" t="s">
+        <v>379</v>
+      </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M91" s="3"/>
       <c r="N91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -5283,38 +5799,40 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="E92" t="s">
-        <v>299</v>
+        <v>382</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H92" t="s">
+        <v>383</v>
+      </c>
       <c r="I92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L92" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M92" s="3"/>
       <c r="N92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -5323,10 +5841,10 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -5334,27 +5852,29 @@
       <c r="G93" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="2"/>
+      <c r="H93" t="s">
+        <v>387</v>
+      </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M93" s="3"/>
       <c r="N93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -5363,38 +5883,40 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H94" t="s">
+        <v>116</v>
+      </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L94" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M94" s="3"/>
       <c r="N94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -5403,10 +5925,10 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>307</v>
+        <v>392</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -5414,27 +5936,29 @@
       <c r="G95" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" t="s">
+        <v>394</v>
+      </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M95" s="3"/>
       <c r="N95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -5443,10 +5967,10 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="E96" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -5454,27 +5978,29 @@
       <c r="G96" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="2"/>
+      <c r="H96" t="s">
+        <v>398</v>
+      </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M96" s="3"/>
       <c r="N96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -5483,38 +6009,40 @@
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="E97" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H97" t="s">
+        <v>402</v>
+      </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L97" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -5523,38 +6051,40 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="E98" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H98" t="s">
+        <v>258</v>
+      </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L98" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M98" s="3"/>
       <c r="N98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -5563,10 +6093,10 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>319</v>
+        <v>407</v>
       </c>
       <c r="E99" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -5574,27 +6104,29 @@
       <c r="G99" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="2"/>
+      <c r="H99" t="s">
+        <v>409</v>
+      </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M99" s="3"/>
       <c r="N99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -5603,38 +6135,40 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H100" t="s">
+        <v>413</v>
+      </c>
       <c r="I100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M100" s="3"/>
       <c r="N100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -5643,38 +6177,40 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="E101" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H101" t="s">
+        <v>286</v>
+      </c>
       <c r="I101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L101" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M101" s="3"/>
       <c r="N101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -5683,38 +6219,40 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="E102" t="s">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H102" t="s">
+        <v>419</v>
+      </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L102" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M102" s="3"/>
       <c r="N102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
@@ -5723,38 +6261,40 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="E103" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
-      </c>
-      <c r="H103" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H103" t="s">
+        <v>409</v>
+      </c>
       <c r="I103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L103" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M103" s="3"/>
       <c r="N103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>332</v>
+        <v>423</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -5763,10 +6303,10 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="E104" t="s">
-        <v>334</v>
+        <v>425</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -5774,27 +6314,29 @@
       <c r="G104" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="2"/>
+      <c r="H104" t="s">
+        <v>426</v>
+      </c>
       <c r="I104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M104" s="3"/>
       <c r="N104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -5803,38 +6345,40 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
       <c r="E105" t="s">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>115</v>
-      </c>
-      <c r="H105" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="H105" t="s">
+        <v>430</v>
+      </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L105" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="M105" s="3"/>
       <c r="N105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -5843,38 +6387,40 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="E106" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>115</v>
-      </c>
-      <c r="H106" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="H106" t="s">
+        <v>434</v>
+      </c>
       <c r="I106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L106" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="M106" s="3"/>
       <c r="N106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -5883,10 +6429,10 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
       <c r="E107" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -5894,27 +6440,29 @@
       <c r="G107" t="s">
         <v>20</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" t="s">
+        <v>438</v>
+      </c>
       <c r="I107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M107" s="3"/>
       <c r="N107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -5923,38 +6471,40 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="E108" t="s">
-        <v>346</v>
+        <v>441</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H108" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H108" t="s">
+        <v>442</v>
+      </c>
       <c r="I108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M108" s="3"/>
       <c r="N108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
@@ -5963,32 +6513,34 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="E109" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="H109" t="s">
+        <v>446</v>
+      </c>
       <c r="I109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -5997,32 +6549,34 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>351</v>
+        <v>448</v>
       </c>
       <c r="E110" t="s">
-        <v>352</v>
+        <v>449</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="H110" t="s">
+        <v>290</v>
+      </c>
       <c r="I110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -6031,38 +6585,40 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>354</v>
+        <v>451</v>
       </c>
       <c r="E111" t="s">
-        <v>355</v>
+        <v>452</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H111" t="s">
+        <v>453</v>
+      </c>
       <c r="I111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L111" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>356</v>
+        <v>454</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -6071,38 +6627,40 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>357</v>
+        <v>455</v>
       </c>
       <c r="E112" t="s">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H112" t="s">
+        <v>457</v>
+      </c>
       <c r="I112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M112" s="3"/>
       <c r="N112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -6111,10 +6669,10 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>360</v>
+        <v>459</v>
       </c>
       <c r="E113" t="s">
-        <v>361</v>
+        <v>460</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -6122,27 +6680,29 @@
       <c r="G113" t="s">
         <v>20</v>
       </c>
-      <c r="H113" s="2"/>
+      <c r="H113" t="s">
+        <v>72</v>
+      </c>
       <c r="I113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M113" s="3"/>
       <c r="N113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -6151,38 +6711,40 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="E114" t="s">
-        <v>364</v>
+        <v>463</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H114" t="s">
+        <v>464</v>
+      </c>
       <c r="I114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M114" s="3"/>
       <c r="N114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>365</v>
+        <v>465</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
@@ -6191,38 +6753,40 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>366</v>
+        <v>466</v>
       </c>
       <c r="E115" t="s">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
-      </c>
-      <c r="H115" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H115" t="s">
+        <v>468</v>
+      </c>
       <c r="I115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L115" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M115" s="3"/>
       <c r="N115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>368</v>
+        <v>469</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
@@ -6231,32 +6795,34 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>369</v>
+        <v>470</v>
       </c>
       <c r="E116" t="s">
-        <v>370</v>
+        <v>471</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="H116" t="s">
+        <v>472</v>
+      </c>
       <c r="I116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -6265,38 +6831,40 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="E117" t="s">
-        <v>373</v>
+        <v>475</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
-      </c>
-      <c r="H117" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H117" t="s">
+        <v>476</v>
+      </c>
       <c r="I117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L117" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M117" s="3"/>
       <c r="N117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>374</v>
+        <v>477</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
@@ -6305,38 +6873,40 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>375</v>
+        <v>478</v>
       </c>
       <c r="E118" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H118" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H118" t="s">
+        <v>480</v>
+      </c>
       <c r="I118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L118" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M118" s="3"/>
       <c r="N118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>377</v>
+        <v>481</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -6345,10 +6915,10 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>378</v>
+        <v>482</v>
       </c>
       <c r="E119" t="s">
-        <v>379</v>
+        <v>483</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -6356,27 +6926,29 @@
       <c r="G119" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="2"/>
+      <c r="H119" t="s">
+        <v>379</v>
+      </c>
       <c r="I119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M119" s="3"/>
       <c r="N119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>380</v>
+        <v>484</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -6385,38 +6957,40 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
       <c r="E120" t="s">
-        <v>382</v>
+        <v>486</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H120" t="s">
+        <v>487</v>
+      </c>
       <c r="I120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L120" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M120" s="3"/>
       <c r="N120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>383</v>
+        <v>488</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -6425,38 +6999,40 @@
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>384</v>
+        <v>489</v>
       </c>
       <c r="E121" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
-      </c>
-      <c r="H121" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H121" t="s">
+        <v>116</v>
+      </c>
       <c r="I121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L121" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M121" s="3"/>
       <c r="N121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -6465,38 +7041,40 @@
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>386</v>
+        <v>491</v>
       </c>
       <c r="E122" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H122" t="s">
+        <v>493</v>
+      </c>
       <c r="I122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L122" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M122" s="3"/>
       <c r="N122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
@@ -6505,38 +7083,40 @@
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>389</v>
+        <v>495</v>
       </c>
       <c r="E123" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
-      </c>
-      <c r="H123" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H123" t="s">
+        <v>497</v>
+      </c>
       <c r="I123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L123" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>391</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -6545,38 +7125,40 @@
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="E124" t="s">
-        <v>393</v>
+        <v>500</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H124" t="s">
+        <v>501</v>
+      </c>
       <c r="I124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L124" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M124" s="3"/>
       <c r="N124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>394</v>
+        <v>502</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -6585,38 +7167,40 @@
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>395</v>
+        <v>503</v>
       </c>
       <c r="E125" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
-      </c>
-      <c r="H125" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H125" t="s">
+        <v>505</v>
+      </c>
       <c r="I125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L125" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M125" s="3"/>
       <c r="N125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
@@ -6625,40 +7209,40 @@
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>398</v>
+        <v>507</v>
       </c>
       <c r="E126" t="s">
-        <v>399</v>
+        <v>508</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>400</v>
-      </c>
-      <c r="H126" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H126" t="s">
+        <v>509</v>
+      </c>
       <c r="I126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L126" t="s">
-        <v>401</v>
-      </c>
-      <c r="M126" t="s">
-        <v>402</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M126" s="3"/>
       <c r="N126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>403</v>
+        <v>510</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
@@ -6667,38 +7251,40 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>404</v>
+        <v>511</v>
       </c>
       <c r="E127" t="s">
-        <v>405</v>
+        <v>512</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
-      </c>
-      <c r="H127" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H127" t="s">
+        <v>509</v>
+      </c>
       <c r="I127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L127" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M127" s="3"/>
       <c r="N127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>513</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -6707,38 +7293,40 @@
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>407</v>
+        <v>514</v>
       </c>
       <c r="E128" t="s">
-        <v>408</v>
+        <v>515</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
-      </c>
-      <c r="H128" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H128" t="s">
+        <v>516</v>
+      </c>
       <c r="I128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L128" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M128" s="3"/>
       <c r="N128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>409</v>
+        <v>517</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
@@ -6747,33 +7335,37 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>410</v>
+        <v>518</v>
       </c>
       <c r="E129" t="s">
-        <v>411</v>
+        <v>519</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
-      </c>
-      <c r="H129" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="H129" t="s">
+        <v>521</v>
+      </c>
       <c r="I129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L129" t="s">
-        <v>36</v>
-      </c>
-      <c r="M129" s="3"/>
+        <v>522</v>
+      </c>
+      <c r="M129" t="s">
+        <v>523</v>
+      </c>
       <c r="N129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6792,10 +7384,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>524</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2">
@@ -6803,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3">
@@ -6811,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
@@ -6819,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5">
@@ -6827,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6">
@@ -6835,7 +7427,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
@@ -6843,7 +7435,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8">
@@ -6851,7 +7443,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9">
@@ -6859,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10">
@@ -6867,7 +7459,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
@@ -6875,7 +7467,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12">
@@ -6883,7 +7475,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13">
@@ -6891,7 +7483,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14">
@@ -6899,7 +7491,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -6907,7 +7499,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P04_6/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_6/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="541">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.1056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000</t>
   </si>
   <si>
     <t xml:space="preserve">Malt</t>
@@ -1660,17 +1663,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1690,11 +1688,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2069,7 +2066,7 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
         <v>26</v>
       </c>
@@ -2111,7 +2108,7 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
         <v>26</v>
       </c>
@@ -2153,7 +2150,7 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
         <v>26</v>
       </c>
@@ -2195,7 +2192,7 @@
       <c r="L5" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
         <v>26</v>
       </c>
@@ -2237,7 +2234,7 @@
       <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
         <v>26</v>
       </c>
@@ -2279,7 +2276,7 @@
       <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
         <v>26</v>
       </c>
@@ -2303,9 +2300,11 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -2313,16 +2312,18 @@
       <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2331,10 +2332,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -2343,7 +2344,7 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -2357,14 +2358,14 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2373,10 +2374,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -2385,7 +2386,7 @@
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2399,14 +2400,14 @@
       <c r="L10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2415,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -2427,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -2441,14 +2442,14 @@
       <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2457,10 +2458,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -2469,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -2483,14 +2484,14 @@
       <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -2499,10 +2500,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2511,7 +2512,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -2525,14 +2526,14 @@
       <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2541,10 +2542,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2553,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -2567,14 +2568,14 @@
       <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2583,10 +2584,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -2595,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -2609,14 +2610,14 @@
       <c r="L15" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2625,10 +2626,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -2637,7 +2638,7 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -2651,14 +2652,14 @@
       <c r="L16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -2667,10 +2668,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -2679,7 +2680,7 @@
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -2693,14 +2694,14 @@
       <c r="L17" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2709,10 +2710,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2721,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2735,14 +2736,14 @@
       <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2751,10 +2752,10 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2763,7 +2764,7 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
@@ -2777,14 +2778,14 @@
       <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -2793,10 +2794,10 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -2805,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -2819,14 +2820,14 @@
       <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2835,10 +2836,10 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -2847,7 +2848,7 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
@@ -2861,14 +2862,14 @@
       <c r="L21" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2877,10 +2878,10 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -2889,7 +2890,7 @@
         <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -2903,14 +2904,14 @@
       <c r="L22" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2919,10 +2920,10 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -2931,7 +2932,7 @@
         <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -2945,14 +2946,14 @@
       <c r="L23" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2961,10 +2962,10 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -2973,7 +2974,7 @@
         <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -2987,14 +2988,14 @@
       <c r="L24" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="2"/>
       <c r="N24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -3003,10 +3004,10 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -3015,7 +3016,7 @@
         <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -3029,14 +3030,14 @@
       <c r="L25" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="2"/>
       <c r="N25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -3045,10 +3046,10 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -3057,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
@@ -3071,14 +3072,14 @@
       <c r="L26" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -3087,10 +3088,10 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -3099,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -3113,14 +3114,14 @@
       <c r="L27" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -3129,10 +3130,10 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -3141,7 +3142,7 @@
         <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -3155,14 +3156,14 @@
       <c r="L28" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -3171,10 +3172,10 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -3183,7 +3184,7 @@
         <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3197,14 +3198,14 @@
       <c r="L29" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="2"/>
       <c r="N29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -3213,10 +3214,10 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -3225,7 +3226,7 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -3239,14 +3240,14 @@
       <c r="L30" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="2"/>
       <c r="N30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -3255,19 +3256,19 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -3279,16 +3280,16 @@
         <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -3297,10 +3298,10 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -3309,7 +3310,7 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3323,14 +3324,14 @@
       <c r="L32" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="2"/>
       <c r="N32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -3339,10 +3340,10 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -3351,7 +3352,7 @@
         <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -3365,14 +3366,14 @@
       <c r="L33" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="2"/>
       <c r="N33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -3381,10 +3382,10 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -3393,7 +3394,7 @@
         <v>38</v>
       </c>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -3407,14 +3408,14 @@
       <c r="L34" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="2"/>
       <c r="N34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -3423,10 +3424,10 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -3435,7 +3436,7 @@
         <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -3449,14 +3450,14 @@
       <c r="L35" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="2"/>
       <c r="N35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -3465,10 +3466,10 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -3477,7 +3478,7 @@
         <v>38</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3491,14 +3492,14 @@
       <c r="L36" t="s">
         <v>40</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="2"/>
       <c r="N36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -3507,10 +3508,10 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -3519,7 +3520,7 @@
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -3533,14 +3534,14 @@
       <c r="L37" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="2"/>
       <c r="N37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -3549,10 +3550,10 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -3561,7 +3562,7 @@
         <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -3575,14 +3576,14 @@
       <c r="L38" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="2"/>
       <c r="N38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -3591,10 +3592,10 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -3603,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
@@ -3617,14 +3618,14 @@
       <c r="L39" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="2"/>
       <c r="N39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -3633,10 +3634,10 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -3645,7 +3646,7 @@
         <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -3659,14 +3660,14 @@
       <c r="L40" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="2"/>
       <c r="N40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -3675,10 +3676,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -3687,7 +3688,7 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3701,14 +3702,14 @@
       <c r="L41" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="2"/>
       <c r="N41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -3717,19 +3718,19 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -3741,16 +3742,16 @@
         <v>24</v>
       </c>
       <c r="L42" t="s">
-        <v>145</v>
-      </c>
-      <c r="M42" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -3759,10 +3760,10 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3771,7 +3772,7 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -3785,14 +3786,14 @@
       <c r="L43" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="3"/>
+      <c r="M43" s="2"/>
       <c r="N43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -3801,10 +3802,10 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3813,7 +3814,7 @@
         <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -3827,14 +3828,14 @@
       <c r="L44" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="3"/>
+      <c r="M44" s="2"/>
       <c r="N44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3843,10 +3844,10 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -3855,7 +3856,7 @@
         <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3869,14 +3870,14 @@
       <c r="L45" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="3"/>
+      <c r="M45" s="2"/>
       <c r="N45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -3885,10 +3886,10 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -3897,7 +3898,7 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -3911,14 +3912,14 @@
       <c r="L46" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="2"/>
       <c r="N46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -3927,10 +3928,10 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -3939,7 +3940,7 @@
         <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3953,14 +3954,14 @@
       <c r="L47" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="2"/>
       <c r="N47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -3969,10 +3970,10 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3981,7 +3982,7 @@
         <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3995,14 +3996,14 @@
       <c r="L48" t="s">
         <v>25</v>
       </c>
-      <c r="M48" s="3"/>
+      <c r="M48" s="2"/>
       <c r="N48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -4011,10 +4012,10 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -4023,7 +4024,7 @@
         <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -4037,14 +4038,14 @@
       <c r="L49" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="2"/>
       <c r="N49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -4053,10 +4054,10 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -4065,7 +4066,7 @@
         <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -4079,14 +4080,14 @@
       <c r="L50" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="3"/>
+      <c r="M50" s="2"/>
       <c r="N50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -4095,10 +4096,10 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -4107,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -4121,14 +4122,14 @@
       <c r="L51" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="2"/>
       <c r="N51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -4137,17 +4138,19 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
       <c r="H52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -4155,16 +4158,18 @@
       <c r="J52" t="s">
         <v>23</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="N52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -4173,17 +4178,19 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
       <c r="H53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -4191,16 +4198,18 @@
       <c r="J53" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
       <c r="N53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -4209,10 +4218,10 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -4221,7 +4230,7 @@
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
@@ -4235,14 +4244,14 @@
       <c r="L54" t="s">
         <v>25</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="M54" s="2"/>
       <c r="N54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -4251,10 +4260,10 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -4263,7 +4272,7 @@
         <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
@@ -4277,14 +4286,14 @@
       <c r="L55" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="3"/>
+      <c r="M55" s="2"/>
       <c r="N55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -4293,10 +4302,10 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -4305,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="H56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -4319,14 +4328,14 @@
       <c r="L56" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="3"/>
+      <c r="M56" s="2"/>
       <c r="N56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -4335,10 +4344,10 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -4347,7 +4356,7 @@
         <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -4361,14 +4370,14 @@
       <c r="L57" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="M57" s="2"/>
       <c r="N57" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -4377,10 +4386,10 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -4389,7 +4398,7 @@
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -4403,14 +4412,14 @@
       <c r="L58" t="s">
         <v>25</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="2"/>
       <c r="N58" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -4419,10 +4428,10 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -4431,7 +4440,7 @@
         <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -4445,14 +4454,14 @@
       <c r="L59" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="M59" s="2"/>
       <c r="N59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -4461,10 +4470,10 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4473,7 +4482,7 @@
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -4487,14 +4496,14 @@
       <c r="L60" t="s">
         <v>25</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="M60" s="2"/>
       <c r="N60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -4503,10 +4512,10 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -4515,7 +4524,7 @@
         <v>38</v>
       </c>
       <c r="H61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -4529,14 +4538,14 @@
       <c r="L61" t="s">
         <v>40</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="2"/>
       <c r="N61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -4545,10 +4554,10 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -4557,7 +4566,7 @@
         <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -4571,14 +4580,14 @@
       <c r="L62" t="s">
         <v>25</v>
       </c>
-      <c r="M62" s="3"/>
+      <c r="M62" s="2"/>
       <c r="N62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -4587,10 +4596,10 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -4599,7 +4608,7 @@
         <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -4613,14 +4622,14 @@
       <c r="L63" t="s">
         <v>25</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="2"/>
       <c r="N63" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -4629,10 +4638,10 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -4641,7 +4650,7 @@
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4655,14 +4664,14 @@
       <c r="L64" t="s">
         <v>25</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="2"/>
       <c r="N64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -4671,10 +4680,10 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -4683,7 +4692,7 @@
         <v>38</v>
       </c>
       <c r="H65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -4697,14 +4706,14 @@
       <c r="L65" t="s">
         <v>40</v>
       </c>
-      <c r="M65" s="3"/>
+      <c r="M65" s="2"/>
       <c r="N65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -4713,10 +4722,10 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -4725,7 +4734,7 @@
         <v>38</v>
       </c>
       <c r="H66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -4739,14 +4748,14 @@
       <c r="L66" t="s">
         <v>40</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="2"/>
       <c r="N66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -4755,10 +4764,10 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -4767,7 +4776,7 @@
         <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4781,14 +4790,14 @@
       <c r="L67" t="s">
         <v>40</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="2"/>
       <c r="N67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -4797,10 +4806,10 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -4809,7 +4818,7 @@
         <v>38</v>
       </c>
       <c r="H68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
@@ -4823,14 +4832,14 @@
       <c r="L68" t="s">
         <v>40</v>
       </c>
-      <c r="M68" s="3"/>
+      <c r="M68" s="2"/>
       <c r="N68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -4839,10 +4848,10 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -4851,7 +4860,7 @@
         <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
@@ -4865,14 +4874,14 @@
       <c r="L69" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="3"/>
+      <c r="M69" s="2"/>
       <c r="N69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -4881,10 +4890,10 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -4893,7 +4902,7 @@
         <v>38</v>
       </c>
       <c r="H70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
@@ -4907,14 +4916,14 @@
       <c r="L70" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="3"/>
+      <c r="M70" s="2"/>
       <c r="N70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -4923,10 +4932,10 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4935,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
@@ -4949,14 +4958,14 @@
       <c r="L71" t="s">
         <v>25</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" s="2"/>
       <c r="N71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -4965,10 +4974,10 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -4977,7 +4986,7 @@
         <v>38</v>
       </c>
       <c r="H72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4991,14 +5000,14 @@
       <c r="L72" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" s="2"/>
       <c r="N72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -5007,10 +5016,10 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -5019,7 +5028,7 @@
         <v>38</v>
       </c>
       <c r="H73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -5033,14 +5042,14 @@
       <c r="L73" t="s">
         <v>40</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" s="2"/>
       <c r="N73" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -5049,10 +5058,10 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -5061,7 +5070,7 @@
         <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -5075,14 +5084,14 @@
       <c r="L74" t="s">
         <v>25</v>
       </c>
-      <c r="M74" s="3"/>
+      <c r="M74" s="2"/>
       <c r="N74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -5091,10 +5100,10 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -5103,7 +5112,7 @@
         <v>38</v>
       </c>
       <c r="H75" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -5117,14 +5126,14 @@
       <c r="L75" t="s">
         <v>40</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="2"/>
       <c r="N75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -5133,10 +5142,10 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -5145,7 +5154,7 @@
         <v>38</v>
       </c>
       <c r="H76" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -5159,14 +5168,14 @@
       <c r="L76" t="s">
         <v>40</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="2"/>
       <c r="N76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -5175,10 +5184,10 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -5187,7 +5196,7 @@
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -5201,14 +5210,14 @@
       <c r="L77" t="s">
         <v>25</v>
       </c>
-      <c r="M77" s="3"/>
+      <c r="M77" s="2"/>
       <c r="N77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -5217,10 +5226,10 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -5229,7 +5238,7 @@
         <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -5243,14 +5252,14 @@
       <c r="L78" t="s">
         <v>40</v>
       </c>
-      <c r="M78" s="3"/>
+      <c r="M78" s="2"/>
       <c r="N78" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -5259,10 +5268,10 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -5271,7 +5280,7 @@
         <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -5285,14 +5294,14 @@
       <c r="L79" t="s">
         <v>25</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="2"/>
       <c r="N79" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -5301,10 +5310,10 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E80" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -5313,7 +5322,7 @@
         <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -5327,14 +5336,14 @@
       <c r="L80" t="s">
         <v>40</v>
       </c>
-      <c r="M80" s="3"/>
+      <c r="M80" s="2"/>
       <c r="N80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -5343,10 +5352,10 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E81" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -5355,7 +5364,7 @@
         <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -5369,14 +5378,14 @@
       <c r="L81" t="s">
         <v>25</v>
       </c>
-      <c r="M81" s="3"/>
+      <c r="M81" s="2"/>
       <c r="N81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -5385,10 +5394,10 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -5397,7 +5406,7 @@
         <v>38</v>
       </c>
       <c r="H82" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5411,14 +5420,14 @@
       <c r="L82" t="s">
         <v>40</v>
       </c>
-      <c r="M82" s="3"/>
+      <c r="M82" s="2"/>
       <c r="N82" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -5427,10 +5436,10 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -5439,7 +5448,7 @@
         <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -5453,14 +5462,14 @@
       <c r="L83" t="s">
         <v>40</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="M83" s="2"/>
       <c r="N83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -5469,10 +5478,10 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E84" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -5481,7 +5490,7 @@
         <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -5495,14 +5504,14 @@
       <c r="L84" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="3"/>
+      <c r="M84" s="2"/>
       <c r="N84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -5511,10 +5520,10 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -5523,7 +5532,7 @@
         <v>38</v>
       </c>
       <c r="H85" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -5537,14 +5546,14 @@
       <c r="L85" t="s">
         <v>40</v>
       </c>
-      <c r="M85" s="3"/>
+      <c r="M85" s="2"/>
       <c r="N85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -5553,17 +5562,19 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" t="s">
+        <v>52</v>
+      </c>
       <c r="H86" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -5571,16 +5582,18 @@
       <c r="J86" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
+      <c r="K86" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
       <c r="N86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -5589,10 +5602,10 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -5601,7 +5614,7 @@
         <v>38</v>
       </c>
       <c r="H87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -5615,14 +5628,14 @@
       <c r="L87" t="s">
         <v>40</v>
       </c>
-      <c r="M87" s="3"/>
+      <c r="M87" s="2"/>
       <c r="N87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -5631,10 +5644,10 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5643,7 +5656,7 @@
         <v>38</v>
       </c>
       <c r="H88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -5657,14 +5670,14 @@
       <c r="L88" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="3"/>
+      <c r="M88" s="2"/>
       <c r="N88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -5673,10 +5686,10 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E89" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -5685,7 +5698,7 @@
         <v>38</v>
       </c>
       <c r="H89" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -5699,14 +5712,14 @@
       <c r="L89" t="s">
         <v>40</v>
       </c>
-      <c r="M89" s="3"/>
+      <c r="M89" s="2"/>
       <c r="N89" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -5715,10 +5728,10 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -5727,7 +5740,7 @@
         <v>38</v>
       </c>
       <c r="H90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -5741,14 +5754,14 @@
       <c r="L90" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="3"/>
+      <c r="M90" s="2"/>
       <c r="N90" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -5757,10 +5770,10 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E91" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -5769,7 +5782,7 @@
         <v>38</v>
       </c>
       <c r="H91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -5783,14 +5796,14 @@
       <c r="L91" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" s="2"/>
       <c r="N91" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -5799,10 +5812,10 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E92" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -5811,7 +5824,7 @@
         <v>38</v>
       </c>
       <c r="H92" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5825,14 +5838,14 @@
       <c r="L92" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="3"/>
+      <c r="M92" s="2"/>
       <c r="N92" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -5841,10 +5854,10 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E93" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -5853,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -5867,14 +5880,14 @@
       <c r="L93" t="s">
         <v>25</v>
       </c>
-      <c r="M93" s="3"/>
+      <c r="M93" s="2"/>
       <c r="N93" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -5883,10 +5896,10 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -5895,7 +5908,7 @@
         <v>38</v>
       </c>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
@@ -5909,14 +5922,14 @@
       <c r="L94" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="3"/>
+      <c r="M94" s="2"/>
       <c r="N94" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -5925,10 +5938,10 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E95" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -5937,7 +5950,7 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I95" t="s">
         <v>22</v>
@@ -5951,14 +5964,14 @@
       <c r="L95" t="s">
         <v>25</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="2"/>
       <c r="N95" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -5967,10 +5980,10 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -5979,7 +5992,7 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
@@ -5993,14 +6006,14 @@
       <c r="L96" t="s">
         <v>25</v>
       </c>
-      <c r="M96" s="3"/>
+      <c r="M96" s="2"/>
       <c r="N96" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -6009,10 +6022,10 @@
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E97" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -6021,7 +6034,7 @@
         <v>38</v>
       </c>
       <c r="H97" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -6035,14 +6048,14 @@
       <c r="L97" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="3"/>
+      <c r="M97" s="2"/>
       <c r="N97" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -6051,10 +6064,10 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E98" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -6063,7 +6076,7 @@
         <v>38</v>
       </c>
       <c r="H98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -6077,14 +6090,14 @@
       <c r="L98" t="s">
         <v>40</v>
       </c>
-      <c r="M98" s="3"/>
+      <c r="M98" s="2"/>
       <c r="N98" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -6093,10 +6106,10 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E99" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -6105,7 +6118,7 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -6119,14 +6132,14 @@
       <c r="L99" t="s">
         <v>25</v>
       </c>
-      <c r="M99" s="3"/>
+      <c r="M99" s="2"/>
       <c r="N99" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -6135,10 +6148,10 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E100" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -6147,7 +6160,7 @@
         <v>38</v>
       </c>
       <c r="H100" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I100" t="s">
         <v>22</v>
@@ -6161,14 +6174,14 @@
       <c r="L100" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="3"/>
+      <c r="M100" s="2"/>
       <c r="N100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -6177,10 +6190,10 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -6189,7 +6202,7 @@
         <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I101" t="s">
         <v>22</v>
@@ -6203,14 +6216,14 @@
       <c r="L101" t="s">
         <v>40</v>
       </c>
-      <c r="M101" s="3"/>
+      <c r="M101" s="2"/>
       <c r="N101" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -6219,10 +6232,10 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E102" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -6231,7 +6244,7 @@
         <v>38</v>
       </c>
       <c r="H102" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -6245,14 +6258,14 @@
       <c r="L102" t="s">
         <v>40</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="2"/>
       <c r="N102" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
@@ -6261,10 +6274,10 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E103" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -6273,7 +6286,7 @@
         <v>38</v>
       </c>
       <c r="H103" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -6287,14 +6300,14 @@
       <c r="L103" t="s">
         <v>40</v>
       </c>
-      <c r="M103" s="3"/>
+      <c r="M103" s="2"/>
       <c r="N103" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -6303,10 +6316,10 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E104" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -6315,7 +6328,7 @@
         <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I104" t="s">
         <v>22</v>
@@ -6329,14 +6342,14 @@
       <c r="L104" t="s">
         <v>25</v>
       </c>
-      <c r="M104" s="3"/>
+      <c r="M104" s="2"/>
       <c r="N104" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -6345,19 +6358,19 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E105" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H105" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I105" t="s">
         <v>22</v>
@@ -6369,16 +6382,16 @@
         <v>24</v>
       </c>
       <c r="L105" t="s">
-        <v>145</v>
-      </c>
-      <c r="M105" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -6387,19 +6400,19 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H106" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -6411,16 +6424,16 @@
         <v>24</v>
       </c>
       <c r="L106" t="s">
-        <v>145</v>
-      </c>
-      <c r="M106" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -6429,10 +6442,10 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E107" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -6441,7 +6454,7 @@
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I107" t="s">
         <v>22</v>
@@ -6455,14 +6468,14 @@
       <c r="L107" t="s">
         <v>25</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="2"/>
       <c r="N107" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -6471,10 +6484,10 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E108" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -6483,7 +6496,7 @@
         <v>38</v>
       </c>
       <c r="H108" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
@@ -6497,14 +6510,14 @@
       <c r="L108" t="s">
         <v>40</v>
       </c>
-      <c r="M108" s="3"/>
+      <c r="M108" s="2"/>
       <c r="N108" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
@@ -6513,17 +6526,19 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E109" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="2"/>
+      <c r="G109" t="s">
+        <v>52</v>
+      </c>
       <c r="H109" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -6531,16 +6546,18 @@
       <c r="J109" t="s">
         <v>23</v>
       </c>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
+      <c r="K109" t="s">
+        <v>24</v>
+      </c>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
       <c r="N109" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -6549,17 +6566,19 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E110" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
-      <c r="G110" s="2"/>
+      <c r="G110" t="s">
+        <v>52</v>
+      </c>
       <c r="H110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -6567,16 +6586,18 @@
       <c r="J110" t="s">
         <v>23</v>
       </c>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
+      <c r="K110" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
       <c r="N110" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -6585,10 +6606,10 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E111" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -6597,7 +6618,7 @@
         <v>38</v>
       </c>
       <c r="H111" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -6611,14 +6632,14 @@
       <c r="L111" t="s">
         <v>40</v>
       </c>
-      <c r="M111" s="3"/>
+      <c r="M111" s="2"/>
       <c r="N111" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -6627,10 +6648,10 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E112" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -6639,7 +6660,7 @@
         <v>38</v>
       </c>
       <c r="H112" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I112" t="s">
         <v>22</v>
@@ -6653,14 +6674,14 @@
       <c r="L112" t="s">
         <v>40</v>
       </c>
-      <c r="M112" s="3"/>
+      <c r="M112" s="2"/>
       <c r="N112" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -6669,10 +6690,10 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E113" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -6681,7 +6702,7 @@
         <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I113" t="s">
         <v>22</v>
@@ -6695,14 +6716,14 @@
       <c r="L113" t="s">
         <v>25</v>
       </c>
-      <c r="M113" s="3"/>
+      <c r="M113" s="2"/>
       <c r="N113" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -6711,10 +6732,10 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E114" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -6723,7 +6744,7 @@
         <v>38</v>
       </c>
       <c r="H114" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -6737,14 +6758,14 @@
       <c r="L114" t="s">
         <v>40</v>
       </c>
-      <c r="M114" s="3"/>
+      <c r="M114" s="2"/>
       <c r="N114" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
@@ -6753,10 +6774,10 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E115" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -6765,7 +6786,7 @@
         <v>38</v>
       </c>
       <c r="H115" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -6779,14 +6800,14 @@
       <c r="L115" t="s">
         <v>40</v>
       </c>
-      <c r="M115" s="3"/>
+      <c r="M115" s="2"/>
       <c r="N115" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
@@ -6795,17 +6816,19 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E116" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
-      <c r="G116" s="2"/>
+      <c r="G116" t="s">
+        <v>52</v>
+      </c>
       <c r="H116" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I116" t="s">
         <v>22</v>
@@ -6813,16 +6836,18 @@
       <c r="J116" t="s">
         <v>23</v>
       </c>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
+      <c r="K116" t="s">
+        <v>24</v>
+      </c>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
       <c r="N116" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -6831,10 +6856,10 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -6843,7 +6868,7 @@
         <v>38</v>
       </c>
       <c r="H117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I117" t="s">
         <v>22</v>
@@ -6857,14 +6882,14 @@
       <c r="L117" t="s">
         <v>40</v>
       </c>
-      <c r="M117" s="3"/>
+      <c r="M117" s="2"/>
       <c r="N117" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
@@ -6873,10 +6898,10 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E118" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -6885,7 +6910,7 @@
         <v>38</v>
       </c>
       <c r="H118" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -6899,14 +6924,14 @@
       <c r="L118" t="s">
         <v>40</v>
       </c>
-      <c r="M118" s="3"/>
+      <c r="M118" s="2"/>
       <c r="N118" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -6915,10 +6940,10 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E119" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -6927,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I119" t="s">
         <v>22</v>
@@ -6941,14 +6966,14 @@
       <c r="L119" t="s">
         <v>25</v>
       </c>
-      <c r="M119" s="3"/>
+      <c r="M119" s="2"/>
       <c r="N119" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -6957,10 +6982,10 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E120" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -6969,7 +6994,7 @@
         <v>38</v>
       </c>
       <c r="H120" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I120" t="s">
         <v>22</v>
@@ -6983,14 +7008,14 @@
       <c r="L120" t="s">
         <v>40</v>
       </c>
-      <c r="M120" s="3"/>
+      <c r="M120" s="2"/>
       <c r="N120" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -6999,10 +7024,10 @@
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E121" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -7011,7 +7036,7 @@
         <v>38</v>
       </c>
       <c r="H121" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I121" t="s">
         <v>22</v>
@@ -7025,14 +7050,14 @@
       <c r="L121" t="s">
         <v>40</v>
       </c>
-      <c r="M121" s="3"/>
+      <c r="M121" s="2"/>
       <c r="N121" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -7041,10 +7066,10 @@
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E122" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
@@ -7053,7 +7078,7 @@
         <v>38</v>
       </c>
       <c r="H122" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I122" t="s">
         <v>22</v>
@@ -7067,14 +7092,14 @@
       <c r="L122" t="s">
         <v>40</v>
       </c>
-      <c r="M122" s="3"/>
+      <c r="M122" s="2"/>
       <c r="N122" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
@@ -7083,10 +7108,10 @@
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E123" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
@@ -7095,7 +7120,7 @@
         <v>38</v>
       </c>
       <c r="H123" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -7109,14 +7134,14 @@
       <c r="L123" t="s">
         <v>40</v>
       </c>
-      <c r="M123" s="3"/>
+      <c r="M123" s="2"/>
       <c r="N123" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -7125,10 +7150,10 @@
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E124" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
@@ -7137,7 +7162,7 @@
         <v>38</v>
       </c>
       <c r="H124" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
@@ -7151,14 +7176,14 @@
       <c r="L124" t="s">
         <v>40</v>
       </c>
-      <c r="M124" s="3"/>
+      <c r="M124" s="2"/>
       <c r="N124" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -7167,10 +7192,10 @@
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E125" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -7179,7 +7204,7 @@
         <v>38</v>
       </c>
       <c r="H125" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
@@ -7193,14 +7218,14 @@
       <c r="L125" t="s">
         <v>40</v>
       </c>
-      <c r="M125" s="3"/>
+      <c r="M125" s="2"/>
       <c r="N125" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
@@ -7209,10 +7234,10 @@
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E126" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -7221,7 +7246,7 @@
         <v>38</v>
       </c>
       <c r="H126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
@@ -7235,14 +7260,14 @@
       <c r="L126" t="s">
         <v>40</v>
       </c>
-      <c r="M126" s="3"/>
+      <c r="M126" s="2"/>
       <c r="N126" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
@@ -7251,10 +7276,10 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E127" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -7263,7 +7288,7 @@
         <v>38</v>
       </c>
       <c r="H127" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -7277,14 +7302,14 @@
       <c r="L127" t="s">
         <v>40</v>
       </c>
-      <c r="M127" s="3"/>
+      <c r="M127" s="2"/>
       <c r="N127" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -7293,10 +7318,10 @@
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E128" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
@@ -7305,7 +7330,7 @@
         <v>38</v>
       </c>
       <c r="H128" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -7319,14 +7344,14 @@
       <c r="L128" t="s">
         <v>40</v>
       </c>
-      <c r="M128" s="3"/>
+      <c r="M128" s="2"/>
       <c r="N128" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
@@ -7335,19 +7360,19 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E129" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H129" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I129" t="s">
         <v>22</v>
@@ -7359,10 +7384,10 @@
         <v>24</v>
       </c>
       <c r="L129" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M129" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N129" t="s">
         <v>26</v>
@@ -7384,10 +7409,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2">
@@ -7395,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3">
@@ -7403,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4">
@@ -7411,7 +7436,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
@@ -7419,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6">
@@ -7427,7 +7452,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7">
@@ -7435,7 +7460,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8">
@@ -7443,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9">
@@ -7451,7 +7476,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10">
@@ -7459,7 +7484,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11">
@@ -7467,7 +7492,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12">
@@ -7475,7 +7500,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13">
@@ -7483,7 +7508,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14">
@@ -7491,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15">
@@ -7499,7 +7524,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
